--- a/financial_models/Opportunities/0590.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0590.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7D4D583-F25F-4E48-B6C5-298307EB1F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EED81C2-700A-4CAD-AF55-2D67726F56A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="341">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1080,9 +1080,6 @@
     <t>capped at</t>
   </si>
   <si>
-    <t xml:space="preserve">Asset Plays </t>
-  </si>
-  <si>
     <t>= Net Non-operating Assets per share</t>
   </si>
   <si>
@@ -1138,9 +1135,6 @@
   </si>
   <si>
     <t>FY</t>
-  </si>
-  <si>
-    <t>Consumer Discretionary, 12.4y</t>
   </si>
   <si>
     <t>% Allocation</t>
@@ -1180,6 +1174,34 @@
   </si>
   <si>
     <t>HK</t>
+  </si>
+  <si>
+    <t>Stalwarts</t>
+  </si>
+  <si>
+    <t>香港老牌珠宝商店</t>
+  </si>
+  <si>
+    <t>effective tax rate in 2023 is 17.9% and 2022 is 17.3%</t>
+  </si>
+  <si>
+    <t>Materials, 18.6y</t>
+  </si>
+  <si>
+    <t>1. 品牌价值高，珠寶黃金在中國這類產品就十分需要品牌
+2. 管理水平较高，并且适应大中华的环境</t>
+  </si>
+  <si>
+    <t>1. 国内生意仍有很大的成长空间，特别在2-3线城市
+2. 有做品牌奢侈品的潜力，利润大，但波动也大</t>
+  </si>
+  <si>
+    <t>1. 内地经济不好，影响高利润的Designer首饰
+2. 经济不好金价上升都严重负面影响Bottom line</t>
+  </si>
+  <si>
+    <t>1. 与其他同等的珠宝店(如周大福)并无太大区别，竞争激烈
+2. 高利润的高端产品受经济影响很大，周期性强</t>
   </si>
 </sst>
 </file>
@@ -4500,7 +4522,7 @@
   <dimension ref="A1:L965"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="E28" sqref="E28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4545,7 +4567,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="372" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D3" s="373"/>
       <c r="E3" s="15"/>
@@ -4562,7 +4584,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="374" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D4" s="375"/>
       <c r="E4" s="6"/>
@@ -4593,7 +4615,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="386">
-        <v>587107968</v>
+        <v>587107850</v>
       </c>
       <c r="J5" s="387"/>
       <c r="K5" s="148"/>
@@ -4620,7 +4642,7 @@
       <c r="H6" s="130"/>
       <c r="I6" s="388">
         <f>I4*I5/1000000</f>
-        <v>11771.514758399999</v>
+        <v>11771.512392500001</v>
       </c>
       <c r="J6" s="389"/>
       <c r="K6" s="148"/>
@@ -4662,11 +4684,11 @@
       </c>
       <c r="I9" s="119">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>9.1624445388505382</v>
+        <v>9.1624426973349813</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.10914117905541544</v>
+        <v>0.10914120099117929</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4674,7 +4696,7 @@
         <v>255</v>
       </c>
       <c r="C10" s="279" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D10" s="279">
         <v>3.4660000000000003E-2</v>
@@ -4685,11 +4707,11 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.96322482820064115</v>
+        <v>0.96322463460672669</v>
       </c>
       <c r="J10" s="127">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>10.059855582934354</v>
+        <v>9.1564198438323334</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -4739,12 +4761,12 @@
         <v>17</v>
       </c>
       <c r="C14" s="349" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D14" s="239"/>
       <c r="E14" s="190">
         <f ca="1">'FCFF Model'!C27</f>
-        <v>20.674570262341472</v>
+        <v>20.084654117397339</v>
       </c>
       <c r="F14" s="181"/>
       <c r="G14" s="182"/>
@@ -4772,7 +4794,7 @@
         <v>21</v>
       </c>
       <c r="I15" s="88" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J15" s="88" t="s">
         <v>20</v>
@@ -4788,74 +4810,74 @@
       </c>
       <c r="D16" s="156">
         <f ca="1">I35/B16-(1+J25)</f>
-        <v>-7.7416359555593228E-3</v>
+        <v>-4.9302832068749192E-2</v>
       </c>
       <c r="E16" s="393" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="390">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
-        <v>2.5350084943225366</v>
+        <v>2.5350090036575632</v>
       </c>
       <c r="G16" s="393" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>17.514991505677465</v>
+        <v>17.514990996342437</v>
       </c>
       <c r="I16" s="411">
-        <v>2.5100000000000001E-2</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J16" s="158">
         <f>I16/B16</f>
-        <v>1.2518703241895261E-3</v>
+        <v>2.7431421446384042E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
         <f ca="1">(I35+I36)/2</f>
-        <v>20.222218204482107</v>
+        <v>19.569600755469725</v>
       </c>
       <c r="C17" s="421"/>
       <c r="D17" s="268">
         <f ca="1">I35/B17-(1+J25)</f>
-        <v>-1.7895249800404356E-2</v>
+        <v>-2.1055242500382931E-2</v>
       </c>
       <c r="E17" s="394"/>
       <c r="F17" s="391"/>
       <c r="G17" s="394"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
-        <v>17.687209710159571</v>
+        <v>17.034591751812162</v>
       </c>
       <c r="I17" s="412"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
-        <v>1.2412090378115278E-3</v>
+        <v>2.8104814547444176E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="323">
         <f>C35</f>
-        <v>19</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="C18" s="422"/>
       <c r="D18" s="157">
         <f ca="1">I35/B18-(1+J25)</f>
-        <v>5.8146326267949355E-2</v>
+        <v>4.0402054678579491E-2</v>
       </c>
       <c r="E18" s="395"/>
       <c r="F18" s="392"/>
       <c r="G18" s="395"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
-        <v>16.464991505677464</v>
+        <v>16.064990996342438</v>
       </c>
       <c r="I18" s="413"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
-        <v>1.3210526315789474E-3</v>
+        <v>2.9569892473118281E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -4871,7 +4893,7 @@
         <v>238</v>
       </c>
       <c r="D20" s="270" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="E20" s="250" t="s">
         <v>247</v>
@@ -4885,7 +4907,9 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="379"/>
+      <c r="C21" s="379" t="s">
+        <v>334</v>
+      </c>
       <c r="D21" s="380"/>
       <c r="E21" s="380"/>
       <c r="F21" s="380"/>
@@ -4899,11 +4923,15 @@
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="397"/>
+      <c r="C22" s="397" t="s">
+        <v>337</v>
+      </c>
       <c r="D22" s="398"/>
       <c r="E22" s="398"/>
       <c r="F22" s="398"/>
-      <c r="G22" s="397"/>
+      <c r="G22" s="397" t="s">
+        <v>340</v>
+      </c>
       <c r="H22" s="397"/>
       <c r="I22" s="398"/>
       <c r="J22" s="398"/>
@@ -4913,11 +4941,15 @@
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="382"/>
+      <c r="C23" s="382" t="s">
+        <v>338</v>
+      </c>
       <c r="D23" s="383"/>
       <c r="E23" s="383"/>
       <c r="F23" s="383"/>
-      <c r="G23" s="382"/>
+      <c r="G23" s="382" t="s">
+        <v>339</v>
+      </c>
       <c r="H23" s="382"/>
       <c r="I23" s="383"/>
       <c r="J23" s="383"/>
@@ -4948,7 +4980,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="12"/>
       <c r="H25" s="360" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="359">
@@ -4979,12 +5011,12 @@
       </c>
       <c r="C27" s="410">
         <f>C31/D25</f>
-        <v>2.8787878787878787E-3</v>
+        <v>0.19727272727272729</v>
       </c>
       <c r="D27" s="409"/>
       <c r="E27" s="408">
         <f>E31/D25</f>
-        <v>0</v>
+        <v>0.19090909090909092</v>
       </c>
       <c r="F27" s="409"/>
       <c r="G27" s="415">
@@ -4994,7 +5026,7 @@
       <c r="H27" s="416"/>
       <c r="I27" s="414">
         <f>C27+E27+G27</f>
-        <v>2.8787878787878787E-3</v>
+        <v>0.38818181818181818</v>
       </c>
       <c r="J27" s="414"/>
     </row>
@@ -5003,18 +5035,18 @@
         <v>34</v>
       </c>
       <c r="C28" s="436">
-        <v>100</v>
+        <v>7000</v>
       </c>
       <c r="D28" s="398"/>
       <c r="E28" s="436">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="F28" s="398"/>
       <c r="G28" s="386"/>
       <c r="H28" s="387"/>
       <c r="I28" s="426">
         <f>C28+E28+G28</f>
-        <v>100</v>
+        <v>14000</v>
       </c>
       <c r="J28" s="426"/>
     </row>
@@ -5023,11 +5055,11 @@
         <v>35</v>
       </c>
       <c r="C29" s="437">
-        <v>19</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D29" s="398"/>
       <c r="E29" s="437">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" s="398"/>
       <c r="G29" s="406"/>
@@ -5041,12 +5073,12 @@
       </c>
       <c r="C30" s="424">
         <f>C29*$I$5/1000000</f>
-        <v>11155.051391999999</v>
+        <v>10920.20601</v>
       </c>
       <c r="D30" s="432"/>
       <c r="E30" s="424">
         <f>E29*$I$5/1000000</f>
-        <v>11155.051391999999</v>
+        <v>10567.9413</v>
       </c>
       <c r="F30" s="432"/>
       <c r="G30" s="368">
@@ -5063,12 +5095,12 @@
       </c>
       <c r="C31" s="433">
         <f>C28*C29</f>
-        <v>1900</v>
+        <v>130200.00000000001</v>
       </c>
       <c r="D31" s="434"/>
       <c r="E31" s="425">
         <f>E28*E29</f>
-        <v>0</v>
+        <v>126000</v>
       </c>
       <c r="F31" s="435"/>
       <c r="G31" s="370">
@@ -5078,7 +5110,7 @@
       <c r="H31" s="371"/>
       <c r="I31" s="425">
         <f>C31+E31+G31</f>
-        <v>1900</v>
+        <v>256200</v>
       </c>
       <c r="J31" s="425"/>
     </row>
@@ -5090,14 +5122,14 @@
       <c r="D32" s="429"/>
       <c r="E32" s="427">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>19</v>
+        <v>18.3</v>
       </c>
       <c r="F32" s="409"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
       <c r="I32" s="427">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>19</v>
+        <v>18.3</v>
       </c>
       <c r="J32" s="427"/>
     </row>
@@ -5109,14 +5141,14 @@
       <c r="D33" s="431"/>
       <c r="E33" s="424">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>11155.051391999999</v>
+        <v>10744.073655</v>
       </c>
       <c r="F33" s="432"/>
       <c r="G33" s="116"/>
       <c r="H33" s="116"/>
       <c r="I33" s="424">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>11155.051391999999</v>
+        <v>10744.073655</v>
       </c>
       <c r="J33" s="424"/>
     </row>
@@ -5126,36 +5158,36 @@
         <v>286</v>
       </c>
       <c r="C35" s="364">
-        <f>E29</f>
-        <v>19</v>
+        <f>IF(C26="",C29,E29)</f>
+        <v>18.600000000000001</v>
       </c>
       <c r="D35" s="365"/>
       <c r="G35" s="366" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H35" s="367"/>
       <c r="I35" s="362">
         <f ca="1">'FCFF Model'!C31</f>
-        <v>23.904780199091036</v>
+        <v>23.071478217021578</v>
       </c>
       <c r="J35" s="363"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="143" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C36" s="364">
-        <f>E32</f>
-        <v>19</v>
+        <f>IF(C26="",C29,E32)</f>
+        <v>18.600000000000001</v>
       </c>
       <c r="D36" s="365"/>
       <c r="G36" s="361" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H36" s="361"/>
       <c r="I36" s="362">
         <f ca="1">'FCFF Model'!C32</f>
-        <v>16.539656209873179</v>
+        <v>16.067723293917872</v>
       </c>
       <c r="J36" s="363"/>
     </row>
@@ -5178,7 +5210,7 @@
       </c>
       <c r="F39" s="208">
         <f>'Qualitative Analysis'!E8</f>
-        <v>0.64</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="G39" s="331"/>
       <c r="H39" s="114"/>
@@ -5191,7 +5223,7 @@
       </c>
       <c r="F40" s="208">
         <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="G40" s="73"/>
       <c r="H40" s="73"/>
@@ -5204,7 +5236,7 @@
       </c>
       <c r="F41" s="329">
         <f>'Qualitative Analysis'!E64</f>
-        <v>0.44088435374149659</v>
+        <v>0.57632653061224492</v>
       </c>
       <c r="G41" s="331"/>
       <c r="H41" s="114"/>
@@ -5213,7 +5245,7 @@
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F42" s="332">
         <v>0.5</v>
@@ -5231,10 +5263,10 @@
     </row>
     <row r="44" spans="2:11" ht="15.75" customHeight="1">
       <c r="E44" s="258" t="s">
+        <v>318</v>
+      </c>
+      <c r="F44" s="258" t="s">
         <v>319</v>
-      </c>
-      <c r="F44" s="258" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="15.75" customHeight="1">
@@ -5243,11 +5275,11 @@
       </c>
       <c r="E45" s="329">
         <f ca="1">I35/C29-1</f>
-        <v>0.25814632626794931</v>
+        <v>0.24040205467857945</v>
       </c>
       <c r="F45" s="332">
         <f ca="1">I35/C36-1</f>
-        <v>0.25814632626794931</v>
+        <v>0.24040205467857945</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
@@ -5256,11 +5288,11 @@
       </c>
       <c r="E46" s="329">
         <f ca="1">I36/C29-1</f>
-        <v>-0.12949177842772741</v>
+        <v>-0.13614390892914674</v>
       </c>
       <c r="F46" s="332">
         <f ca="1">I36/C36-1</f>
-        <v>-0.12949177842772741</v>
+        <v>-0.13614390892914674</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
@@ -5270,11 +5302,11 @@
       </c>
       <c r="E48" s="353">
         <f ca="1">IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
-        <v>0.73432319701624871</v>
+        <v>0.74166736080102846</v>
       </c>
       <c r="F48" s="329">
         <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.73432319701624871</v>
+        <v>0.74166736080102846</v>
       </c>
       <c r="G48" s="73"/>
     </row>
@@ -5285,25 +5317,25 @@
       <c r="D49" s="326"/>
       <c r="E49" s="328">
         <f ca="1">IF(E46&gt;=0,100,E45/ABS(E46))</f>
-        <v>1.9935344884619621</v>
+        <v>1.7657936852958416</v>
       </c>
       <c r="F49" s="328">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>1.9935344884619621</v>
+        <v>1.7657936852958416</v>
       </c>
       <c r="G49" s="73"/>
     </row>
     <row r="50" spans="2:9" ht="15.75" customHeight="1">
       <c r="B50" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E50" s="358">
         <f ca="1">MAX(J25*2/E45,1)</f>
-        <v>1.5495087835757546</v>
+        <v>1.6638792897789705</v>
       </c>
       <c r="F50" s="358">
         <f ca="1">MAX(J25*2/F45,1)</f>
-        <v>1.5495087835757546</v>
+        <v>1.6638792897789705</v>
       </c>
       <c r="G50" s="330"/>
       <c r="H50" s="84"/>
@@ -5311,15 +5343,15 @@
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1">
       <c r="B51" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E51" s="327">
         <f ca="1">MIN(MAX(E48-ABS((1-E48)/E49),0)/E50,H51)</f>
-        <v>0.38789968474430309</v>
+        <v>0.35781985530018912</v>
       </c>
       <c r="F51" s="327">
         <f ca="1">MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
-        <v>0.38789968474430309</v>
+        <v>0.35781985530018912</v>
       </c>
       <c r="G51" s="330" t="s">
         <v>304</v>
@@ -5331,28 +5363,28 @@
     <row r="52" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="53" spans="2:9" ht="15.75" customHeight="1">
       <c r="B53" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.75" customHeight="1">
       <c r="B54" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.75" customHeight="1">
       <c r="B55" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="57" spans="2:9" ht="15.75" customHeight="1">
       <c r="B57" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.75" customHeight="1">
       <c r="B58" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1"/>
@@ -6375,7 +6407,7 @@
       <formula>LEN(TRIM(K38))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -6405,7 +6437,7 @@
   <dimension ref="A1:N941"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C13" sqref="C13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -7723,15 +7755,15 @@
       </c>
       <c r="D39" s="167">
         <f t="shared" si="20"/>
-        <v>1.5499994031762145</v>
+        <v>1.5499997147031845</v>
       </c>
       <c r="E39" s="167">
         <f t="shared" si="20"/>
-        <v>1.0000000545044554</v>
+        <v>1.0000002554896856</v>
       </c>
       <c r="F39" s="167">
         <f t="shared" si="20"/>
-        <v>1.1000004006077464</v>
+        <v>1.1000006216915683</v>
       </c>
       <c r="G39" s="167" t="str">
         <f t="shared" si="20"/>
@@ -9576,8 +9608,8 @@
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -9649,7 +9681,7 @@
       </c>
       <c r="I4" s="89">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>20.816341569392566</v>
+        <v>20.816345753169543</v>
       </c>
       <c r="K4" s="73"/>
     </row>
@@ -9668,11 +9700,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="59">
         <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
-        <v>8727519.4859644454</v>
+        <v>8727519.4858680349</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.28585542047704293</v>
+        <v>0.28585542048493195</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9692,7 +9724,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>14.865271741575896</v>
+        <v>14.865274729111583</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -9729,7 +9761,7 @@
         <v>45016</v>
       </c>
       <c r="E9" s="270" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F9" s="130"/>
       <c r="G9" s="130"/>
@@ -10572,11 +10604,11 @@
       </c>
       <c r="D50" s="208">
         <f>IF(E50=0, 0,E50/C50)</f>
-        <v>0.96322482820064115</v>
+        <v>0.96322463460672669</v>
       </c>
       <c r="E50" s="212">
         <f>MAX(C50,C50*Dashboard!I10)</f>
-        <v>-479.68596444391932</v>
+        <v>-479.68586803414991</v>
       </c>
       <c r="I50" s="154"/>
     </row>
@@ -10704,7 +10736,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="446">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>10282797.072435554</v>
+        <v>10282794.706631966</v>
       </c>
       <c r="E60" s="447"/>
       <c r="F60" s="6"/>
@@ -10788,7 +10820,7 @@
   <dimension ref="A1:M902"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10875,7 +10907,7 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="B4" s="272" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C4" s="273">
         <v>4360265</v>
@@ -10902,7 +10934,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="B5" s="272" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C5" s="273">
         <v>5391825</v>
@@ -10929,7 +10961,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="B6" s="272" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C6" s="273">
         <v>2225754</v>
@@ -11011,12 +11043,12 @@
       <c r="D9" s="246"/>
       <c r="E9" s="221">
         <f>E7*(1-E10)</f>
-        <v>8753385.5991978105</v>
+        <v>9076644.6092780288</v>
       </c>
       <c r="F9" s="246"/>
       <c r="G9" s="264">
         <f>IF(G7="","",G7*(1-G10))</f>
-        <v>9628724.1591175906</v>
+        <v>9824295.860216124</v>
       </c>
       <c r="H9" s="246"/>
       <c r="I9" s="264" t="str">
@@ -11038,13 +11070,13 @@
       </c>
       <c r="D10" s="183"/>
       <c r="E10" s="72">
-        <f>C10</f>
-        <v>0.2696977018568617</v>
+        <f>C10*0.9</f>
+        <v>0.24272793167117554</v>
       </c>
       <c r="F10" s="183"/>
       <c r="G10" s="72">
-        <f>E10</f>
-        <v>0.2696977018568617</v>
+        <f>E10*1.05</f>
+        <v>0.25486432825473432</v>
       </c>
       <c r="H10" s="183"/>
       <c r="I10" s="72"/>
@@ -11063,12 +11095,12 @@
       <c r="D11" s="27"/>
       <c r="E11" s="27">
         <f>E7-E9</f>
-        <v>3232590.1008021887</v>
+        <v>2909331.0907219704</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27">
         <f>IF(G8="","",G7-G9)</f>
-        <v>3555849.1108824089</v>
+        <v>3360277.4097838756</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27" t="str">
@@ -11138,12 +11170,12 @@
       <c r="D14" s="18"/>
       <c r="E14" s="18">
         <f>E16/E7</f>
-        <v>0.11378358242100993</v>
+        <v>8.681381223532382E-2</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18">
         <f>IF(G8="","",G16/G7)</f>
-        <v>0.11378358242101004</v>
+        <v>9.8950208818882571E-2</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18" t="str">
@@ -11163,12 +11195,12 @@
       <c r="D15" s="248"/>
       <c r="E15" s="14">
         <f>IF(ABS(C16+E16)=ABS(C16)+ABS(E16),IF(E16&lt;0,-1,1)*(E16-C16)/C16,"Turn")</f>
-        <v>6.7889513338070155E-4</v>
+        <v>-0.23650892456063413</v>
       </c>
       <c r="F15" s="248"/>
       <c r="G15" s="14">
         <f>IF(G8="","",IF(ABS(E16+G16)=ABS(E16)+ABS(G16),IF(G16&lt;0,-1,1)*(G16-E16)/E16,"Turn"))</f>
-        <v>0.100000000000001</v>
+        <v>0.25377779063229089</v>
       </c>
       <c r="H15" s="248"/>
       <c r="I15" s="14" t="str">
@@ -11191,12 +11223,12 @@
       <c r="D16" s="296"/>
       <c r="E16" s="295">
         <f>E11-E13</f>
-        <v>1363807.2539571722</v>
+        <v>1040548.2438769538</v>
       </c>
       <c r="F16" s="296"/>
       <c r="G16" s="295">
         <f>IF(G8="","",G11-G13)</f>
-        <v>1500187.9793528907</v>
+        <v>1304616.2782543574</v>
       </c>
       <c r="H16" s="296"/>
       <c r="I16" s="295" t="str">
@@ -11213,17 +11245,18 @@
         <v>141</v>
       </c>
       <c r="C17" s="292">
-        <v>0.25</v>
+        <f>(17.9%+17.3%)/2</f>
+        <v>0.17599999999999999</v>
       </c>
       <c r="D17" s="293"/>
       <c r="E17" s="294">
         <f>IF(E16="","",C17)</f>
-        <v>0.25</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="F17" s="294"/>
       <c r="G17" s="294">
         <f>IF(G16="","",E17)</f>
-        <v>0.25</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="H17" s="294"/>
       <c r="I17" s="294" t="str">
@@ -11231,7 +11264,9 @@
         <v/>
       </c>
       <c r="J17" s="310"/>
-      <c r="L17" s="73"/>
+      <c r="L17" s="73" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1">
       <c r="B18" s="300" t="s">
@@ -11239,17 +11274,17 @@
       </c>
       <c r="C18" s="248">
         <f>C19/C9</f>
-        <v>0.11685255137870512</v>
+        <v>0.12838200311473738</v>
       </c>
       <c r="D18" s="302"/>
       <c r="E18" s="301">
         <f>E19/E9</f>
-        <v>0.11685255137870507</v>
+        <v>9.4463514862989664E-2</v>
       </c>
       <c r="F18" s="301"/>
       <c r="G18" s="301">
         <f>IF(G9="","",G19/G9)</f>
-        <v>0.11685255137870518</v>
+        <v>0.1094229885354798</v>
       </c>
       <c r="H18" s="301"/>
       <c r="I18" s="301" t="str">
@@ -11264,17 +11299,17 @@
       </c>
       <c r="C19" s="298">
         <f>IF(C16&lt;=0,C16,C16*(1-C17))</f>
-        <v>1022161.5</v>
+        <v>1123014.7680000002</v>
       </c>
       <c r="D19" s="298"/>
       <c r="E19" s="299">
         <f>IF(E16="","",IF(E16&lt;=0,E16,E16*(1-E17)))</f>
-        <v>1022855.4404678792</v>
+        <v>857411.75295461004</v>
       </c>
       <c r="F19" s="298"/>
       <c r="G19" s="299">
         <f>IF(G16="","",IF(G16&lt;=0,G16,G16*(1-G17)))</f>
-        <v>1125140.9845146681</v>
+        <v>1075003.8132815906</v>
       </c>
       <c r="H19" s="298"/>
       <c r="I19" s="299" t="str">
@@ -12213,7 +12248,7 @@
   <dimension ref="A1:J916"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -12289,15 +12324,15 @@
       </c>
       <c r="C4" s="179">
         <f>Operation!C19</f>
-        <v>1022161.5</v>
+        <v>1123014.7680000002</v>
       </c>
       <c r="D4" s="45">
         <f>Operation!E19</f>
-        <v>1022855.4404678792</v>
+        <v>857411.75295461004</v>
       </c>
       <c r="E4" s="45">
         <f>Operation!G19</f>
-        <v>1125140.9845146681</v>
+        <v>1075003.8132815906</v>
       </c>
       <c r="F4" s="198" t="str">
         <f>Operation!I19</f>
@@ -12318,11 +12353,11 @@
       <c r="C5" s="241"/>
       <c r="D5" s="242">
         <f>D4/C4-1</f>
-        <v>6.7889513338070806E-4</v>
+        <v>-0.23650892456063421</v>
       </c>
       <c r="E5" s="242">
         <f>IF(E4="","",E4/D4-1)</f>
-        <v>0.10000000000000098</v>
+        <v>0.25377779063229089</v>
       </c>
       <c r="F5" s="242" t="str">
         <f>IF(F4="","",F4/E4-1)</f>
@@ -12356,11 +12391,11 @@
       </c>
       <c r="C7" s="286">
         <f>C4*C6</f>
-        <v>257482.48185000001</v>
+        <v>282887.42005920003</v>
       </c>
       <c r="D7" s="286">
         <f>D6*D4</f>
-        <v>257657.28545385879</v>
+        <v>215982.02056926629</v>
       </c>
       <c r="E7" s="287"/>
       <c r="F7" s="287"/>
@@ -12375,15 +12410,15 @@
       </c>
       <c r="C8" s="189">
         <f>IF(C4="","",C4-C7)</f>
-        <v>764679.01815000002</v>
+        <v>840127.34794080013</v>
       </c>
       <c r="D8" s="188">
         <f>D4-D7</f>
-        <v>765198.15501402039</v>
+        <v>641429.73238534376</v>
       </c>
       <c r="E8" s="188">
         <f>IF(E4="","",E4-E7)</f>
-        <v>1125140.9845146681</v>
+        <v>1075003.8132815906</v>
       </c>
       <c r="F8" s="188" t="str">
         <f>IF(F4="","",F4-F7)</f>
@@ -12399,15 +12434,15 @@
       </c>
       <c r="C9" s="190">
         <f>C8/(Common_Shares/Data!$C$4)</f>
-        <v>1.3024504176887615</v>
+        <v>1.4309591465022997</v>
       </c>
       <c r="D9" s="283">
         <f>D8/(Common_Shares/Data!$C$4)</f>
-        <v>1.3033346449388001</v>
+        <v>1.0925245376728379</v>
       </c>
       <c r="E9" s="283">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
-        <v>1.9164123906331794</v>
+        <v>1.8310159083745696</v>
       </c>
       <c r="F9" s="283" t="str">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
@@ -12415,7 +12450,7 @@
       </c>
       <c r="G9" s="337">
         <f>IF(F4="",IF(E4="",D8,E8),F8)*Data!C$4/Dashboard!I5</f>
-        <v>1.9164123906331794</v>
+        <v>1.8310159083745698</v>
       </c>
       <c r="H9" s="81"/>
       <c r="I9" s="56"/>
@@ -12478,11 +12513,11 @@
       <c r="C12" s="336"/>
       <c r="D12" s="192">
         <f ca="1">IF(D9="","",D9/D11)</f>
-        <v>1.2157972434130597</v>
+        <v>1.0191460239485428</v>
       </c>
       <c r="E12" s="193">
         <f ca="1">IF(E9="","",E9/E11)</f>
-        <v>1.6676288484987427</v>
+        <v>1.5933183096654402</v>
       </c>
       <c r="F12" s="193" t="str">
         <f>IF(F9="","",F9/F11)</f>
@@ -12519,14 +12554,14 @@
       </c>
       <c r="D15" s="213">
         <f>C15/(Dashboard!I5/Data!C4)</f>
-        <v>3.998669968655578</v>
+        <v>3.9986707723291386</v>
       </c>
       <c r="E15" s="84" t="s">
         <v>224</v>
       </c>
       <c r="G15" s="134">
         <f>C15+C16+C17+C18</f>
-        <v>1488323.685964444</v>
+        <v>1488323.6858680341</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -12539,14 +12574,14 @@
       </c>
       <c r="D16" s="213">
         <f>C16/(Dashboard!I5/Data!C4)</f>
-        <v>6.7108610592047019E-4</v>
+        <v>6.7108624079885838E-4</v>
       </c>
       <c r="E16" s="84" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G16" s="194">
         <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
-        <v>2.5350084943225366</v>
+        <v>2.5350090036575632</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" customHeight="1">
@@ -12559,7 +12594,7 @@
       </c>
       <c r="D17" s="213">
         <f>C17/(Dashboard!I5/Data!C4)</f>
-        <v>-1.4651495923829805</v>
+        <v>-1.4651498868563928</v>
       </c>
       <c r="E17" s="451" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
@@ -12578,7 +12613,7 @@
       </c>
       <c r="C18" s="83">
         <f>-Asset_Model!E50</f>
-        <v>479.68596444391932</v>
+        <v>479.68586803414991</v>
       </c>
       <c r="D18" s="213">
         <f>C18/(Dashboard!I5/Data!C4)</f>
@@ -12587,11 +12622,11 @@
       <c r="E18" s="451"/>
       <c r="F18" s="145">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
-        <v>3.998669968655578</v>
+        <v>3.9986707723291386</v>
       </c>
       <c r="G18" s="144">
         <f>SUM(D16:D18)</f>
-        <v>-1.4636614743330414</v>
+        <v>-1.4636617686715754</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15.75" customHeight="1">
@@ -12644,22 +12679,22 @@
       </c>
       <c r="C22" s="14">
         <f>1/D22</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D22" s="277">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22" s="202">
         <f ca="1">IF(G9&lt;0,G9,G9*D22/G11)</f>
-        <v>18.667487110060552</v>
+        <v>14.863043933446273</v>
       </c>
       <c r="F22" s="342">
         <f ca="1">E22+$G$16</f>
-        <v>21.202495604383088</v>
+        <v>17.398052937103834</v>
       </c>
       <c r="G22" s="345">
         <f ca="1">ROUND(F22*Exchange_Rate,2)</f>
-        <v>21.2</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="I22" s="73"/>
     </row>
@@ -12676,15 +12711,15 @@
       </c>
       <c r="E23" s="341">
         <f ca="1">IF(G9&lt;0,G9,G9*D23/G11)</f>
-        <v>24.889982813414068</v>
+        <v>23.780870293514035</v>
       </c>
       <c r="F23" s="343">
         <f ca="1">E23+$G$16</f>
-        <v>27.424991307736605</v>
+        <v>26.315879297171598</v>
       </c>
       <c r="G23" s="348">
         <f ca="1">ROUND(F23*Exchange_Rate,2)</f>
-        <v>27.42</v>
+        <v>26.32</v>
       </c>
       <c r="I23" s="73"/>
     </row>
@@ -12693,11 +12728,11 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="346" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G24" s="347">
         <f ca="1">MIN(G22,G23)+ABS(G22-G23)*'Qualitative Analysis'!$E$64</f>
-        <v>23.942300680272108</v>
+        <v>22.540832653061223</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15.75" customHeight="1">
@@ -12712,7 +12747,7 @@
     </row>
     <row r="26" spans="2:9" ht="15.75" customHeight="1">
       <c r="B26" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C26" s="449" t="s">
         <v>145</v>
@@ -12729,11 +12764,11 @@
     </row>
     <row r="27" spans="2:9" ht="15.75" customHeight="1">
       <c r="B27" s="240" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C27" s="238">
         <f ca="1">MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$8</f>
-        <v>20.674570262341472</v>
+        <v>20.084654117397339</v>
       </c>
       <c r="D27" s="117" t="str">
         <f>Dashboard!J4</f>
@@ -12741,11 +12776,11 @@
       </c>
       <c r="E27" s="118">
         <f ca="1">(C27-G16)/C9</f>
-        <v>13.927257054597248</v>
+        <v>12.264253075733473</v>
       </c>
       <c r="F27" s="155">
         <f ca="1">C27/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.99322989471650613</v>
+        <v>0.96488945752780741</v>
       </c>
       <c r="G27" s="86"/>
       <c r="H27" s="6"/>
@@ -12754,7 +12789,7 @@
     <row r="28" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="29" spans="2:9" ht="15.75" customHeight="1">
       <c r="B29" s="351" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>210</v>
@@ -12768,11 +12803,11 @@
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1">
       <c r="B30" s="333" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C30" s="335">
-        <f ca="1">IF(G9&lt;0,G9,G9*18/G11)</f>
-        <v>28.001230665090826</v>
+        <f ca="1">IF(G9&lt;0,G9,G9*17/G11)</f>
+        <v>25.267174686858663</v>
       </c>
       <c r="D30" s="334" t="str">
         <f>D27</f>
@@ -12780,21 +12815,21 @@
       </c>
       <c r="E30" s="118">
         <f ca="1">(C30-G16)/C9</f>
-        <v>19.55254635793268</v>
+        <v>15.885964137246994</v>
       </c>
       <c r="F30" s="155">
         <f ca="1">C30/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.3451561875917046</v>
+        <v>1.2138141336844113</v>
       </c>
       <c r="I30" s="73"/>
     </row>
     <row r="31" spans="2:9" ht="15.75" customHeight="1">
       <c r="B31" s="352" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C31" s="350">
         <f ca="1">MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E64</f>
-        <v>23.904780199091036</v>
+        <v>23.071478217021578</v>
       </c>
       <c r="D31" s="334" t="str">
         <f>D30</f>
@@ -12802,21 +12837,21 @@
       </c>
       <c r="E31" s="118">
         <f ca="1">(C31-G16)/C9</f>
-        <v>16.407359093707246</v>
+        <v>14.35154124669555</v>
       </c>
       <c r="F31" s="155">
         <f ca="1">C31/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.1483660622786653</v>
+        <v>1.108334694791888</v>
       </c>
       <c r="I31" s="73"/>
     </row>
     <row r="32" spans="2:9" ht="15.75" customHeight="1">
       <c r="B32" s="333" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C32" s="350">
         <f ca="1">IF(Asset_Model!D7&gt;C27,Asset_Model!D7,C27)/(1+Dashboard!C16)</f>
-        <v>16.539656209873179</v>
+        <v>16.067723293917872</v>
       </c>
       <c r="D32" s="334" t="str">
         <f>D30</f>
@@ -12824,11 +12859,11 @@
       </c>
       <c r="E32" s="118">
         <f ca="1">(C32-G16)/C9</f>
-        <v>10.752538081566531</v>
+        <v>9.4570933931540857</v>
       </c>
       <c r="F32" s="155">
         <f ca="1">C32/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.79455153801820599</v>
+        <v>0.77188011212156993</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -13744,8 +13779,8 @@
   </sheetPr>
   <dimension ref="A2:H77"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -13807,7 +13842,7 @@
       <c r="C5" s="94"/>
       <c r="D5" s="92">
         <f>AVERAGE(D12:D16)</f>
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="E5" s="100" t="str">
         <f>IF(D5&gt;=3.5,"Strongly agree",IF(D5&gt;=2.5,"agree",IF(D5&gt;=1.5,"unclear",IF(D5&gt;=0.5,"disagree","Strongly disagree"))))</f>
@@ -13822,11 +13857,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="92">
         <f>AVERAGE(D24:D28)</f>
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="E6" s="100" t="str">
         <f>IF(D6&gt;=3.5,"Strongly agree",IF(D6&gt;=2.5,"agree",IF(D6&gt;=1.5,"unclear",IF(D6&gt;=0.5,"disagree","Strongly disagree"))))</f>
-        <v>unclear</v>
+        <v>agree</v>
       </c>
       <c r="G6" s="76"/>
     </row>
@@ -13852,11 +13887,11 @@
       <c r="C8" s="94"/>
       <c r="D8" s="92">
         <f>AVERAGE(D3:D7)</f>
-        <v>2.56</v>
+        <v>2.7199999999999998</v>
       </c>
       <c r="E8" s="96">
         <f>D8/4</f>
-        <v>0.64</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="G8" s="76"/>
     </row>
@@ -13904,10 +13939,10 @@
       </c>
       <c r="D13" s="98">
         <f>IF(E13="Strongly disagree",0,IF(E13="disagree",1,IF(E13="unclear",2,IF(E13="agree",3,4))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="274"/>
@@ -13918,10 +13953,10 @@
       </c>
       <c r="D14" s="98">
         <f>IF(E14="Strongly disagree",0,IF(E14="disagree",1,IF(E14="unclear",2,IF(E14="agree",3,4))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="274"/>
@@ -13983,10 +14018,10 @@
       </c>
       <c r="D19" s="98">
         <f t="shared" ref="D19:D22" si="1">IF(E19="Strongly disagree",0,IF(E19="disagree",1,IF(E19="unclear",2,IF(E19="agree",3,4))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="274"/>
@@ -13997,10 +14032,10 @@
       </c>
       <c r="D20" s="98">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="274"/>
@@ -14011,10 +14046,10 @@
       </c>
       <c r="D21" s="98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="274"/>
@@ -14047,10 +14082,10 @@
       </c>
       <c r="D24" s="98">
         <f t="shared" ref="D24:D28" si="2">IF(E24="Strongly disagree",0,IF(E24="disagree",1,IF(E24="unclear",2,IF(E24="agree",3,4))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="274"/>
@@ -14061,10 +14096,10 @@
       </c>
       <c r="D25" s="98">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="274"/>
@@ -14125,7 +14160,7 @@
       </c>
       <c r="D30" s="101">
         <f>SUM(D31:D35)/(5*4)</f>
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="E30" s="49" t="str">
         <f>IF(D30&gt;80%,"Very High",IF(D30&lt;=20%,"Very Low",IF(D30&lt;=40%,"Low",IF(D30&lt;=60%,"Medium","High"))))</f>
@@ -14140,10 +14175,10 @@
       </c>
       <c r="D31" s="98">
         <f t="shared" ref="D31:D35" si="3">IF(E31="Strongly disagree",0,IF(E31="disagree",1,IF(E31="unclear",2,IF(E31="agree",3,4))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="274"/>
@@ -14182,10 +14217,10 @@
       </c>
       <c r="D34" s="98">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="274"/>
@@ -14196,10 +14231,10 @@
       </c>
       <c r="D35" s="98">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G35" s="274"/>
     </row>
@@ -14209,11 +14244,11 @@
       </c>
       <c r="D36" s="101">
         <f>SUM(D37:D41)/(5*4)</f>
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="E36" s="49" t="str">
         <f>IF(D36&gt;80%,"Very High",IF(D36&lt;=20%,"Very Low",IF(D36&lt;=40%,"Low",IF(D36&lt;=60%,"Medium","High"))))</f>
-        <v>Low</v>
+        <v>Very Low</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="274"/>
@@ -14224,10 +14259,10 @@
       </c>
       <c r="D37" s="98">
         <f t="shared" ref="D37:D41" si="4">IF(E37="Strongly disagree",0,IF(E37="disagree",1,IF(E37="unclear",2,IF(E37="agree",3,4))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="274"/>
@@ -14238,10 +14273,10 @@
       </c>
       <c r="D38" s="98">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="274"/>
@@ -14252,10 +14287,10 @@
       </c>
       <c r="D39" s="98">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="274"/>
@@ -14266,10 +14301,10 @@
       </c>
       <c r="D40" s="98">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="274"/>
@@ -14280,10 +14315,10 @@
       </c>
       <c r="D41" s="98">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G41" s="274"/>
     </row>
@@ -14293,11 +14328,11 @@
       </c>
       <c r="D42" s="101">
         <f>SUM(D43:D48)/(6*4)</f>
-        <v>0.5</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E42" s="49" t="str">
         <f>IF(D42&gt;80%,"Very High",IF(D42&lt;=20%,"Very Low",IF(D42&lt;=40%,"Low",IF(D42&lt;=60%,"Medium","High"))))</f>
-        <v>Medium</v>
+        <v>High</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="274"/>
@@ -14308,10 +14343,10 @@
       </c>
       <c r="D43" s="98">
         <f t="shared" ref="D43:D48" si="5">IF(E43="Strongly disagree",0,IF(E43="disagree",1,IF(E43="unclear",2,IF(E43="agree",3,4))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="274"/>
@@ -14322,10 +14357,10 @@
       </c>
       <c r="D44" s="98">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="274"/>
@@ -14350,10 +14385,10 @@
       </c>
       <c r="D46" s="98">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="274"/>
@@ -14364,10 +14399,10 @@
       </c>
       <c r="D47" s="98">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="274"/>
@@ -14378,10 +14413,10 @@
       </c>
       <c r="D48" s="98">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="274"/>
@@ -14392,11 +14427,11 @@
       </c>
       <c r="D49" s="101">
         <f>SUM(D50:D54)/(5*4)</f>
-        <v>0.41564625850340137</v>
+        <v>0.37346938775510202</v>
       </c>
       <c r="E49" s="49" t="str">
         <f>IF(D49&gt;80%,"Very High",IF(D49&lt;=20%,"Very Low",IF(D49&lt;=40%,"Low",IF(D49&lt;=60%,"Medium","High"))))</f>
-        <v>Medium</v>
+        <v>Low</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="274"/>
@@ -14462,10 +14497,10 @@
       </c>
       <c r="D54" s="102">
         <f t="array" ref="D54">(1-INDEX(B68:E77,MATCH(E54,B68:B77,0),4))*4</f>
-        <v>2.3129251700680271</v>
+        <v>1.4693877551020407</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F54" s="53"/>
       <c r="G54" s="274"/>
@@ -14477,11 +14512,11 @@
       </c>
       <c r="D55" s="103">
         <f>SUM(D56:D61)/(6*4)</f>
-        <v>0.91666666666666663</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E55" s="49" t="str">
         <f>IF(D55&gt;80%,"Very High",IF(D55&lt;=20%,"Very Low",IF(D55&lt;=40%,"Low",IF(D55&lt;=60%,"Medium","High"))))</f>
-        <v>Very High</v>
+        <v>High</v>
       </c>
       <c r="F55" s="53"/>
       <c r="G55" s="274"/>
@@ -14508,10 +14543,10 @@
       </c>
       <c r="D57" s="98">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F57" s="53"/>
       <c r="G57" s="274"/>
@@ -14538,10 +14573,10 @@
       </c>
       <c r="D59" s="98">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F59" s="53"/>
       <c r="G59" s="274"/>
@@ -14553,10 +14588,10 @@
       </c>
       <c r="D60" s="98">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F60" s="53"/>
       <c r="G60" s="274"/>
@@ -14583,7 +14618,7 @@
       </c>
       <c r="D62" s="124">
         <f>1-AVERAGE(D30,D36,D42,D49,D55)</f>
-        <v>0.46353741496598633</v>
+        <v>0.50530612244897966</v>
       </c>
       <c r="E62" s="49" t="str">
         <f>IF(D62&gt;80%,"Very Low",IF(D62&lt;=20%,"Very High",IF(D62&lt;=40%,"High",IF(D62&lt;=60%,"Medium","Low"))))</f>
@@ -14603,11 +14638,11 @@
       </c>
       <c r="D64" s="92">
         <f>E64*4</f>
-        <v>1.7635374149659864</v>
+        <v>2.3053061224489797</v>
       </c>
       <c r="E64" s="123">
         <f>AVERAGE(AVERAGE(D12:D16)/4,AVERAGE(D18:D22)/4,AVERAGE(D24:D28)/4,D62)</f>
-        <v>0.44088435374149659</v>
+        <v>0.57632653061224492</v>
       </c>
       <c r="G64" s="274"/>
     </row>

--- a/financial_models/Opportunities/0590.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0590.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EED81C2-700A-4CAD-AF55-2D67726F56A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CE3CE18-A039-4F5F-99F8-3F6C595F0227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3896,201 +3896,201 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4566,33 +4566,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="372" t="s">
+      <c r="C3" s="411" t="s">
         <v>327</v>
       </c>
-      <c r="D3" s="373"/>
+      <c r="D3" s="412"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="384" t="s">
+      <c r="I3" s="421" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="385"/>
+      <c r="J3" s="422"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="374" t="s">
+      <c r="C4" s="413" t="s">
         <v>328</v>
       </c>
-      <c r="D4" s="375"/>
+      <c r="D4" s="414"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>20.05</v>
+        <v>19.02</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4603,10 +4603,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="376">
+      <c r="C5" s="415">
         <v>45107</v>
       </c>
-      <c r="D5" s="375"/>
+      <c r="D5" s="414"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -4614,10 +4614,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="386">
+      <c r="I5" s="383">
         <v>587107850</v>
       </c>
-      <c r="J5" s="387"/>
+      <c r="J5" s="384"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4640,11 +4640,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="388">
+      <c r="I6" s="423">
         <f>I4*I5/1000000</f>
-        <v>11771.512392500001</v>
-      </c>
-      <c r="J6" s="389"/>
+        <v>11166.791307</v>
+      </c>
+      <c r="J6" s="424"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4684,11 +4684,11 @@
       </c>
       <c r="I9" s="119">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>9.1624426973349813</v>
+        <v>8.6917536211127846</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.10914120099117929</v>
+        <v>0.11505158148649551</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4699,7 +4699,7 @@
         <v>332</v>
       </c>
       <c r="D10" s="279">
-        <v>3.4660000000000003E-2</v>
+        <v>3.6810000000000002E-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="5" t="s">
@@ -4707,41 +4707,41 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.96322463460672669</v>
+        <v>0.91374227183141843</v>
       </c>
       <c r="J10" s="127">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>9.1564198438323334</v>
+        <v>8.6179617037312433</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="403">
+      <c r="C11" s="381">
         <f ca="1">C12-D10</f>
-        <v>3.7339999999999991E-2</v>
-      </c>
-      <c r="D11" s="404"/>
+        <v>3.5189999999999992E-2</v>
+      </c>
+      <c r="D11" s="382"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="401" t="s">
+      <c r="I11" s="378" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="402"/>
+      <c r="J11" s="379"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="399">
+      <c r="C12" s="429">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D12" s="400"/>
+      <c r="D12" s="430"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
@@ -4766,7 +4766,7 @@
       <c r="D14" s="239"/>
       <c r="E14" s="190">
         <f ca="1">'FCFF Model'!C27</f>
-        <v>20.084654117397339</v>
+        <v>20.084640686288672</v>
       </c>
       <c r="F14" s="181"/>
       <c r="G14" s="182"/>
@@ -4803,58 +4803,58 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="128">
         <f>I4</f>
-        <v>20.05</v>
-      </c>
-      <c r="C16" s="420">
+        <v>19.02</v>
+      </c>
+      <c r="C16" s="404">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f ca="1">I35/B16-(1+J25)</f>
-        <v>-4.9302832068749192E-2</v>
-      </c>
-      <c r="E16" s="393" t="s">
+        <v>1.3011173849483582E-2</v>
+      </c>
+      <c r="E16" s="395" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="390">
+      <c r="F16" s="425">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
-        <v>2.5350090036575632</v>
-      </c>
-      <c r="G16" s="393" t="s">
+        <v>2.5349670314429829</v>
+      </c>
+      <c r="G16" s="395" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>17.514990996342437</v>
-      </c>
-      <c r="I16" s="411">
+        <v>16.485032968557018</v>
+      </c>
+      <c r="I16" s="390">
         <v>0.55000000000000004</v>
       </c>
       <c r="J16" s="158">
         <f>I16/B16</f>
-        <v>2.7431421446384042E-2</v>
+        <v>2.8916929547844378E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
         <f ca="1">(I35+I36)/2</f>
-        <v>19.569600755469725</v>
-      </c>
-      <c r="C17" s="421"/>
+        <v>19.569592537824057</v>
+      </c>
+      <c r="C17" s="405"/>
       <c r="D17" s="268">
         <f ca="1">I35/B17-(1+J25)</f>
-        <v>-2.1055242500382931E-2</v>
-      </c>
-      <c r="E17" s="394"/>
-      <c r="F17" s="391"/>
-      <c r="G17" s="394"/>
+        <v>-2.1055038216830857E-2</v>
+      </c>
+      <c r="E17" s="396"/>
+      <c r="F17" s="426"/>
+      <c r="G17" s="396"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
-        <v>17.034591751812162</v>
-      </c>
-      <c r="I17" s="412"/>
+        <v>17.034625506381076</v>
+      </c>
+      <c r="I17" s="391"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
-        <v>2.8104814547444176E-2</v>
+        <v>2.8104826349192581E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -4862,19 +4862,19 @@
         <f>C35</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="C18" s="422"/>
+      <c r="C18" s="406"/>
       <c r="D18" s="157">
         <f ca="1">I35/B18-(1+J25)</f>
-        <v>4.0402054678579491E-2</v>
-      </c>
-      <c r="E18" s="395"/>
-      <c r="F18" s="392"/>
-      <c r="G18" s="395"/>
+        <v>4.0401748742858734E-2</v>
+      </c>
+      <c r="E18" s="397"/>
+      <c r="F18" s="427"/>
+      <c r="G18" s="397"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
-        <v>16.064990996342438</v>
-      </c>
-      <c r="I18" s="413"/>
+        <v>16.06503296855702</v>
+      </c>
+      <c r="I18" s="392"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>2.9569892473118281E-2</v>
@@ -4907,52 +4907,52 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="379" t="s">
+      <c r="C21" s="418" t="s">
         <v>334</v>
       </c>
-      <c r="D21" s="380"/>
-      <c r="E21" s="380"/>
-      <c r="F21" s="380"/>
-      <c r="G21" s="380"/>
-      <c r="H21" s="380"/>
-      <c r="I21" s="380"/>
-      <c r="J21" s="381"/>
+      <c r="D21" s="419"/>
+      <c r="E21" s="419"/>
+      <c r="F21" s="419"/>
+      <c r="G21" s="419"/>
+      <c r="H21" s="419"/>
+      <c r="I21" s="419"/>
+      <c r="J21" s="420"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="397" t="s">
+      <c r="C22" s="380" t="s">
         <v>337</v>
       </c>
-      <c r="D22" s="398"/>
-      <c r="E22" s="398"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="397" t="s">
+      <c r="D22" s="364"/>
+      <c r="E22" s="364"/>
+      <c r="F22" s="364"/>
+      <c r="G22" s="380" t="s">
         <v>340</v>
       </c>
-      <c r="H22" s="397"/>
-      <c r="I22" s="398"/>
-      <c r="J22" s="398"/>
+      <c r="H22" s="380"/>
+      <c r="I22" s="364"/>
+      <c r="J22" s="364"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="382" t="s">
+      <c r="C23" s="393" t="s">
         <v>338</v>
       </c>
-      <c r="D23" s="383"/>
-      <c r="E23" s="383"/>
-      <c r="F23" s="383"/>
-      <c r="G23" s="382" t="s">
+      <c r="D23" s="394"/>
+      <c r="E23" s="394"/>
+      <c r="F23" s="394"/>
+      <c r="G23" s="393" t="s">
         <v>339</v>
       </c>
-      <c r="H23" s="382"/>
-      <c r="I23" s="383"/>
-      <c r="J23" s="383"/>
+      <c r="H23" s="393"/>
+      <c r="I23" s="394"/>
+      <c r="J23" s="394"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -4991,205 +4991,205 @@
       <c r="B26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="377"/>
-      <c r="D26" s="378"/>
-      <c r="E26" s="417" t="str">
+      <c r="C26" s="416"/>
+      <c r="D26" s="417"/>
+      <c r="E26" s="401" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="418"/>
-      <c r="G26" s="418"/>
-      <c r="H26" s="419"/>
-      <c r="I26" s="396" t="s">
+      <c r="F26" s="402"/>
+      <c r="G26" s="402"/>
+      <c r="H26" s="403"/>
+      <c r="I26" s="428" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="396"/>
+      <c r="J26" s="428"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="410">
+      <c r="C27" s="389">
         <f>C31/D25</f>
         <v>0.19727272727272729</v>
       </c>
-      <c r="D27" s="409"/>
-      <c r="E27" s="408">
+      <c r="D27" s="375"/>
+      <c r="E27" s="388">
         <f>E31/D25</f>
         <v>0.19090909090909092</v>
       </c>
-      <c r="F27" s="409"/>
-      <c r="G27" s="415">
+      <c r="F27" s="375"/>
+      <c r="G27" s="399">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="416"/>
-      <c r="I27" s="414">
+      <c r="H27" s="400"/>
+      <c r="I27" s="398">
         <f>C27+E27+G27</f>
         <v>0.38818181818181818</v>
       </c>
-      <c r="J27" s="414"/>
+      <c r="J27" s="398"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="436">
+      <c r="C28" s="363">
         <v>7000</v>
       </c>
-      <c r="D28" s="398"/>
-      <c r="E28" s="436">
+      <c r="D28" s="364"/>
+      <c r="E28" s="363">
         <v>7000</v>
       </c>
-      <c r="F28" s="398"/>
-      <c r="G28" s="386"/>
-      <c r="H28" s="387"/>
-      <c r="I28" s="426">
+      <c r="F28" s="364"/>
+      <c r="G28" s="383"/>
+      <c r="H28" s="384"/>
+      <c r="I28" s="377">
         <f>C28+E28+G28</f>
         <v>14000</v>
       </c>
-      <c r="J28" s="426"/>
+      <c r="J28" s="377"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="437">
+      <c r="C29" s="365">
         <v>18.600000000000001</v>
       </c>
-      <c r="D29" s="398"/>
-      <c r="E29" s="437">
+      <c r="D29" s="364"/>
+      <c r="E29" s="365">
         <v>18</v>
       </c>
-      <c r="F29" s="398"/>
-      <c r="G29" s="406"/>
-      <c r="H29" s="407"/>
-      <c r="I29" s="405"/>
-      <c r="J29" s="405"/>
+      <c r="F29" s="364"/>
+      <c r="G29" s="386"/>
+      <c r="H29" s="387"/>
+      <c r="I29" s="385"/>
+      <c r="J29" s="385"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="424">
+      <c r="C30" s="361">
         <f>C29*$I$5/1000000</f>
         <v>10920.20601</v>
       </c>
-      <c r="D30" s="432"/>
-      <c r="E30" s="424">
+      <c r="D30" s="362"/>
+      <c r="E30" s="361">
         <f>E29*$I$5/1000000</f>
         <v>10567.9413</v>
       </c>
-      <c r="F30" s="432"/>
-      <c r="G30" s="368">
+      <c r="F30" s="362"/>
+      <c r="G30" s="407">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="369"/>
-      <c r="I30" s="423"/>
-      <c r="J30" s="423"/>
+      <c r="H30" s="408"/>
+      <c r="I30" s="376"/>
+      <c r="J30" s="376"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="433">
+      <c r="C31" s="370">
         <f>C28*C29</f>
         <v>130200.00000000001</v>
       </c>
-      <c r="D31" s="434"/>
-      <c r="E31" s="425">
+      <c r="D31" s="371"/>
+      <c r="E31" s="372">
         <f>E28*E29</f>
         <v>126000</v>
       </c>
-      <c r="F31" s="435"/>
-      <c r="G31" s="370">
+      <c r="F31" s="373"/>
+      <c r="G31" s="409">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="371"/>
-      <c r="I31" s="425">
+      <c r="H31" s="410"/>
+      <c r="I31" s="372">
         <f>C31+E31+G31</f>
         <v>256200</v>
       </c>
-      <c r="J31" s="425"/>
+      <c r="J31" s="372"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="428"/>
-      <c r="D32" s="429"/>
-      <c r="E32" s="427">
+      <c r="C32" s="366"/>
+      <c r="D32" s="367"/>
+      <c r="E32" s="374">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>18.3</v>
       </c>
-      <c r="F32" s="409"/>
+      <c r="F32" s="375"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
-      <c r="I32" s="427">
+      <c r="I32" s="374">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>18.3</v>
       </c>
-      <c r="J32" s="427"/>
+      <c r="J32" s="374"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="430"/>
-      <c r="D33" s="431"/>
-      <c r="E33" s="424">
+      <c r="C33" s="368"/>
+      <c r="D33" s="369"/>
+      <c r="E33" s="361">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>10744.073655</v>
       </c>
-      <c r="F33" s="432"/>
+      <c r="F33" s="362"/>
       <c r="G33" s="116"/>
       <c r="H33" s="116"/>
-      <c r="I33" s="424">
+      <c r="I33" s="361">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>10744.073655</v>
       </c>
-      <c r="J33" s="424"/>
+      <c r="J33" s="361"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="364">
+      <c r="C35" s="434">
         <f>IF(C26="",C29,E29)</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="D35" s="365"/>
-      <c r="G35" s="366" t="s">
+      <c r="D35" s="435"/>
+      <c r="G35" s="436" t="s">
         <v>316</v>
       </c>
-      <c r="H35" s="367"/>
-      <c r="I35" s="362">
+      <c r="H35" s="437"/>
+      <c r="I35" s="432">
         <f ca="1">'FCFF Model'!C31</f>
-        <v>23.071478217021578</v>
-      </c>
-      <c r="J35" s="363"/>
+        <v>23.071472526617175</v>
+      </c>
+      <c r="J35" s="433"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="143" t="s">
         <v>317</v>
       </c>
-      <c r="C36" s="364">
+      <c r="C36" s="434">
         <f>IF(C26="",C29,E32)</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="D36" s="365"/>
-      <c r="G36" s="361" t="s">
+      <c r="D36" s="435"/>
+      <c r="G36" s="431" t="s">
         <v>314</v>
       </c>
-      <c r="H36" s="361"/>
-      <c r="I36" s="362">
+      <c r="H36" s="431"/>
+      <c r="I36" s="432">
         <f ca="1">'FCFF Model'!C32</f>
-        <v>16.067723293917872</v>
-      </c>
-      <c r="J36" s="363"/>
+        <v>16.067712549030936</v>
+      </c>
+      <c r="J36" s="433"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -5275,11 +5275,11 @@
       </c>
       <c r="E45" s="329">
         <f ca="1">I35/C29-1</f>
-        <v>0.24040205467857945</v>
+        <v>0.24040174874285869</v>
       </c>
       <c r="F45" s="332">
         <f ca="1">I35/C36-1</f>
-        <v>0.24040205467857945</v>
+        <v>0.24040174874285869</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
@@ -5288,11 +5288,11 @@
       </c>
       <c r="E46" s="329">
         <f ca="1">I36/C29-1</f>
-        <v>-0.13614390892914674</v>
+        <v>-0.13614448661124001</v>
       </c>
       <c r="F46" s="332">
         <f ca="1">I36/C36-1</f>
-        <v>-0.13614390892914674</v>
+        <v>-0.13614448661124001</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
@@ -5302,11 +5302,11 @@
       </c>
       <c r="E48" s="353">
         <f ca="1">IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
-        <v>0.74166736080102846</v>
+        <v>0.74166705486530771</v>
       </c>
       <c r="F48" s="329">
         <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.74166736080102846</v>
+        <v>0.74166705486530771</v>
       </c>
       <c r="G48" s="73"/>
     </row>
@@ -5317,11 +5317,11 @@
       <c r="D49" s="326"/>
       <c r="E49" s="328">
         <f ca="1">IF(E46&gt;=0,100,E45/ABS(E46))</f>
-        <v>1.7657936852958416</v>
+        <v>1.765783945620397</v>
       </c>
       <c r="F49" s="328">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>1.7657936852958416</v>
+        <v>1.765783945620397</v>
       </c>
       <c r="G49" s="73"/>
     </row>
@@ -5331,11 +5331,11 @@
       </c>
       <c r="E50" s="358">
         <f ca="1">MAX(J25*2/E45,1)</f>
-        <v>1.6638792897789705</v>
+        <v>1.663881407234906</v>
       </c>
       <c r="F50" s="358">
         <f ca="1">MAX(J25*2/F45,1)</f>
-        <v>1.6638792897789705</v>
+        <v>1.663881407234906</v>
       </c>
       <c r="G50" s="330"/>
       <c r="H50" s="84"/>
@@ -5347,11 +5347,11 @@
       </c>
       <c r="E51" s="327">
         <f ca="1">MIN(MAX(E48-ABS((1-E48)/E49),0)/E50,H51)</f>
-        <v>0.35781985530018912</v>
+        <v>0.35781862696113348</v>
       </c>
       <c r="F51" s="327">
         <f ca="1">MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
-        <v>0.35781985530018912</v>
+        <v>0.35781862696113348</v>
       </c>
       <c r="G51" s="330" t="s">
         <v>304</v>
@@ -6296,38 +6296,12 @@
     <row r="965" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
@@ -6344,12 +6318,38 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -9700,11 +9700,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="59">
         <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
-        <v>8727519.4858680349</v>
+        <v>8727494.8436513729</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.28585542048493195</v>
+        <v>0.2858574368775032</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9724,7 +9724,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>14.865274729111583</v>
+        <v>14.865232756897004</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10604,11 +10604,11 @@
       </c>
       <c r="D50" s="208">
         <f>IF(E50=0, 0,E50/C50)</f>
-        <v>0.96322463460672669</v>
+        <v>0.91374227183141843</v>
       </c>
       <c r="E50" s="212">
         <f>MAX(C50,C50*Dashboard!I10)</f>
-        <v>-479.68586803414991</v>
+        <v>-455.04365137204638</v>
       </c>
       <c r="I50" s="154"/>
     </row>
@@ -10639,7 +10639,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>860201</v>
       </c>
-      <c r="E53" s="434"/>
+      <c r="E53" s="371"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10658,7 +10658,7 @@
       <c r="D54" s="448">
         <v>0</v>
       </c>
-      <c r="E54" s="398"/>
+      <c r="E54" s="364"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10672,7 +10672,7 @@
       <c r="D55" s="448">
         <v>0</v>
       </c>
-      <c r="E55" s="398"/>
+      <c r="E55" s="364"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -10736,7 +10736,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="446">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>10282794.706631966</v>
+        <v>9678098.2633486278</v>
       </c>
       <c r="E60" s="447"/>
       <c r="F60" s="6"/>
@@ -12561,7 +12561,7 @@
       </c>
       <c r="G15" s="134">
         <f>C15+C16+C17+C18</f>
-        <v>1488323.6858680341</v>
+        <v>1488299.043651372</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -12581,7 +12581,7 @@
       </c>
       <c r="G16" s="194">
         <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
-        <v>2.5350090036575632</v>
+        <v>2.5349670314429829</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" customHeight="1">
@@ -12613,11 +12613,11 @@
       </c>
       <c r="C18" s="83">
         <f>-Asset_Model!E50</f>
-        <v>479.68586803414991</v>
+        <v>455.04365137204638</v>
       </c>
       <c r="D18" s="213">
         <f>C18/(Dashboard!I5/Data!C4)</f>
-        <v>8.1703194401871809E-4</v>
+        <v>7.7505972943820529E-4</v>
       </c>
       <c r="E18" s="451"/>
       <c r="F18" s="145">
@@ -12626,7 +12626,7 @@
       </c>
       <c r="G18" s="144">
         <f>SUM(D16:D18)</f>
-        <v>-1.4636617686715754</v>
+        <v>-1.4637037408861557</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15.75" customHeight="1">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="F22" s="342">
         <f ca="1">E22+$G$16</f>
-        <v>17.398052937103834</v>
+        <v>17.398010964889256</v>
       </c>
       <c r="G22" s="345">
         <f ca="1">ROUND(F22*Exchange_Rate,2)</f>
@@ -12715,7 +12715,7 @@
       </c>
       <c r="F23" s="343">
         <f ca="1">E23+$G$16</f>
-        <v>26.315879297171598</v>
+        <v>26.315837324957016</v>
       </c>
       <c r="G23" s="348">
         <f ca="1">ROUND(F23*Exchange_Rate,2)</f>
@@ -12768,7 +12768,7 @@
       </c>
       <c r="C27" s="238">
         <f ca="1">MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$8</f>
-        <v>20.084654117397339</v>
+        <v>20.084640686288672</v>
       </c>
       <c r="D27" s="117" t="str">
         <f>Dashboard!J4</f>
@@ -12776,11 +12776,11 @@
       </c>
       <c r="E27" s="118">
         <f ca="1">(C27-G16)/C9</f>
-        <v>12.264253075733473</v>
+        <v>12.264273021170759</v>
       </c>
       <c r="F27" s="155">
         <f ca="1">C27/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.96488945752780741</v>
+        <v>0.96488881228218459</v>
       </c>
       <c r="G27" s="86"/>
       <c r="H27" s="6"/>
@@ -12815,7 +12815,7 @@
       </c>
       <c r="E30" s="118">
         <f ca="1">(C30-G16)/C9</f>
-        <v>15.885964137246994</v>
+        <v>15.885993468772414</v>
       </c>
       <c r="F30" s="155">
         <f ca="1">C30/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
@@ -12829,7 +12829,7 @@
       </c>
       <c r="C31" s="350">
         <f ca="1">MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E64</f>
-        <v>23.071478217021578</v>
+        <v>23.071472526617175</v>
       </c>
       <c r="D31" s="334" t="str">
         <f>D30</f>
@@ -12837,11 +12837,11 @@
       </c>
       <c r="E31" s="118">
         <f ca="1">(C31-G16)/C9</f>
-        <v>14.35154124669555</v>
+        <v>14.35156660158445</v>
       </c>
       <c r="F31" s="155">
         <f ca="1">C31/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.108334694791888</v>
+        <v>1.1083344214295758</v>
       </c>
       <c r="I31" s="73"/>
     </row>
@@ -12851,7 +12851,7 @@
       </c>
       <c r="C32" s="350">
         <f ca="1">IF(Asset_Model!D7&gt;C27,Asset_Model!D7,C27)/(1+Dashboard!C16)</f>
-        <v>16.067723293917872</v>
+        <v>16.067712549030936</v>
       </c>
       <c r="D32" s="334" t="str">
         <f>D30</f>
@@ -12859,11 +12859,11 @@
       </c>
       <c r="E32" s="118">
         <f ca="1">(C32-G16)/C9</f>
-        <v>9.4570933931540857</v>
+        <v>9.4571152158089955</v>
       </c>
       <c r="F32" s="155">
         <f ca="1">C32/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.77188011212156993</v>
+        <v>0.77187959594610556</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/0590.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0590.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CE3CE18-A039-4F5F-99F8-3F6C595F0227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2D05734-D5DC-47B4-BA8D-70F6F376B3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31410" yWindow="2610" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -3896,201 +3896,201 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4521,8 +4521,8 @@
   </sheetPr>
   <dimension ref="A1:L965"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:F28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4566,33 +4566,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="411" t="s">
+      <c r="C3" s="372" t="s">
         <v>327</v>
       </c>
-      <c r="D3" s="412"/>
+      <c r="D3" s="373"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="421" t="s">
+      <c r="I3" s="384" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="422"/>
+      <c r="J3" s="385"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="413" t="s">
+      <c r="C4" s="374" t="s">
         <v>328</v>
       </c>
-      <c r="D4" s="414"/>
+      <c r="D4" s="375"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>19.02</v>
+        <v>20</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4603,21 +4603,21 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="415">
-        <v>45107</v>
-      </c>
-      <c r="D5" s="414"/>
+      <c r="C5" s="376">
+        <v>45076</v>
+      </c>
+      <c r="D5" s="375"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
-        <v>Patience Premium</v>
+        <v/>
       </c>
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="383">
+      <c r="I5" s="386">
         <v>587107850</v>
       </c>
-      <c r="J5" s="384"/>
+      <c r="J5" s="387"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4640,11 +4640,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="423">
+      <c r="I6" s="388">
         <f>I4*I5/1000000</f>
-        <v>11166.791307</v>
-      </c>
-      <c r="J6" s="424"/>
+        <v>11742.156999999999</v>
+      </c>
+      <c r="J6" s="389"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4684,11 +4684,11 @@
       </c>
       <c r="I9" s="119">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>8.6917536211127846</v>
+        <v>9.139593713052351</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.11505158148649551</v>
+        <v>0.10941405399365722</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4707,41 +4707,41 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.91374227183141843</v>
+        <v>0.96082257816132333</v>
       </c>
       <c r="J10" s="127">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>8.6179617037312433</v>
+        <v>9.1302810991672327</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="381">
+      <c r="C11" s="403">
         <f ca="1">C12-D10</f>
-        <v>3.5189999999999992E-2</v>
-      </c>
-      <c r="D11" s="382"/>
+        <v>2.3189999999999995E-2</v>
+      </c>
+      <c r="D11" s="404"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="378" t="s">
+      <c r="I11" s="401" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="379"/>
+      <c r="J11" s="402"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="429">
+      <c r="C12" s="399">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D12" s="430"/>
+        <v>0.06</v>
+      </c>
+      <c r="D12" s="400"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
@@ -4766,7 +4766,7 @@
       <c r="D14" s="239"/>
       <c r="E14" s="190">
         <f ca="1">'FCFF Model'!C27</f>
-        <v>20.084640686288672</v>
+        <v>20.549024077646671</v>
       </c>
       <c r="F14" s="181"/>
       <c r="G14" s="182"/>
@@ -4803,81 +4803,81 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="128">
         <f>I4</f>
-        <v>19.02</v>
-      </c>
-      <c r="C16" s="404">
+        <v>20</v>
+      </c>
+      <c r="C16" s="420">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f ca="1">I35/B16-(1+J25)</f>
-        <v>1.3011173849483582E-2</v>
-      </c>
-      <c r="E16" s="395" t="s">
+        <v>-1.157986206737216E-2</v>
+      </c>
+      <c r="E16" s="393" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="425">
+      <c r="F16" s="390">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
-        <v>2.5349670314429829</v>
-      </c>
-      <c r="G16" s="395" t="s">
+        <v>2.535006966171419</v>
+      </c>
+      <c r="G16" s="393" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>16.485032968557018</v>
-      </c>
-      <c r="I16" s="390">
+        <v>17.464993033828581</v>
+      </c>
+      <c r="I16" s="411">
         <v>0.55000000000000004</v>
       </c>
       <c r="J16" s="158">
         <f>I16/B16</f>
-        <v>2.8916929547844378E-2</v>
+        <v>2.7500000000000004E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
         <f ca="1">(I35+I36)/2</f>
-        <v>19.569592537824057</v>
-      </c>
-      <c r="C17" s="405"/>
+        <v>20.103811010384945</v>
+      </c>
+      <c r="C17" s="421"/>
       <c r="D17" s="268">
         <f ca="1">I35/B17-(1+J25)</f>
-        <v>-2.1055038216830857E-2</v>
-      </c>
-      <c r="E17" s="396"/>
-      <c r="F17" s="426"/>
-      <c r="G17" s="396"/>
+        <v>-1.7716563970154198E-2</v>
+      </c>
+      <c r="E17" s="394"/>
+      <c r="F17" s="391"/>
+      <c r="G17" s="394"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
-        <v>17.034625506381076</v>
-      </c>
-      <c r="I17" s="391"/>
+        <v>17.568804044213525</v>
+      </c>
+      <c r="I17" s="412"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
-        <v>2.8104826349192581E-2</v>
+        <v>2.735799693480449E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="323">
         <f>C35</f>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="C18" s="406"/>
+        <v>18.62</v>
+      </c>
+      <c r="C18" s="422"/>
       <c r="D18" s="157">
         <f ca="1">I35/B18-(1+J25)</f>
-        <v>4.0401748742858734E-2</v>
-      </c>
-      <c r="E18" s="397"/>
-      <c r="F18" s="427"/>
-      <c r="G18" s="397"/>
+        <v>7.6498536984562548E-2</v>
+      </c>
+      <c r="E18" s="395"/>
+      <c r="F18" s="392"/>
+      <c r="G18" s="395"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
-        <v>16.06503296855702</v>
-      </c>
-      <c r="I18" s="392"/>
+        <v>16.084993033828582</v>
+      </c>
+      <c r="I18" s="413"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
-        <v>2.9569892473118281E-2</v>
+        <v>2.9538131041890441E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -4907,52 +4907,52 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="418" t="s">
+      <c r="C21" s="379" t="s">
         <v>334</v>
       </c>
-      <c r="D21" s="419"/>
-      <c r="E21" s="419"/>
-      <c r="F21" s="419"/>
-      <c r="G21" s="419"/>
-      <c r="H21" s="419"/>
-      <c r="I21" s="419"/>
-      <c r="J21" s="420"/>
+      <c r="D21" s="380"/>
+      <c r="E21" s="380"/>
+      <c r="F21" s="380"/>
+      <c r="G21" s="380"/>
+      <c r="H21" s="380"/>
+      <c r="I21" s="380"/>
+      <c r="J21" s="381"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="380" t="s">
+      <c r="C22" s="397" t="s">
         <v>337</v>
       </c>
-      <c r="D22" s="364"/>
-      <c r="E22" s="364"/>
-      <c r="F22" s="364"/>
-      <c r="G22" s="380" t="s">
+      <c r="D22" s="398"/>
+      <c r="E22" s="398"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="397" t="s">
         <v>340</v>
       </c>
-      <c r="H22" s="380"/>
-      <c r="I22" s="364"/>
-      <c r="J22" s="364"/>
+      <c r="H22" s="397"/>
+      <c r="I22" s="398"/>
+      <c r="J22" s="398"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="393" t="s">
+      <c r="C23" s="382" t="s">
         <v>338</v>
       </c>
-      <c r="D23" s="394"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="394"/>
-      <c r="G23" s="393" t="s">
+      <c r="D23" s="383"/>
+      <c r="E23" s="383"/>
+      <c r="F23" s="383"/>
+      <c r="G23" s="382" t="s">
         <v>339</v>
       </c>
-      <c r="H23" s="393"/>
-      <c r="I23" s="394"/>
-      <c r="J23" s="394"/>
+      <c r="H23" s="382"/>
+      <c r="I23" s="383"/>
+      <c r="J23" s="383"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -4991,205 +4991,205 @@
       <c r="B26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="416"/>
-      <c r="D26" s="417"/>
-      <c r="E26" s="401" t="str">
+      <c r="C26" s="377"/>
+      <c r="D26" s="378"/>
+      <c r="E26" s="417" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="402"/>
-      <c r="G26" s="402"/>
-      <c r="H26" s="403"/>
-      <c r="I26" s="428" t="s">
+      <c r="F26" s="418"/>
+      <c r="G26" s="418"/>
+      <c r="H26" s="419"/>
+      <c r="I26" s="396" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="428"/>
+      <c r="J26" s="396"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="389">
+      <c r="C27" s="410">
         <f>C31/D25</f>
-        <v>0.19727272727272729</v>
-      </c>
-      <c r="D27" s="375"/>
-      <c r="E27" s="388">
+        <v>0.19748484848484849</v>
+      </c>
+      <c r="D27" s="409"/>
+      <c r="E27" s="408">
         <f>E31/D25</f>
         <v>0.19090909090909092</v>
       </c>
-      <c r="F27" s="375"/>
-      <c r="G27" s="399">
+      <c r="F27" s="409"/>
+      <c r="G27" s="415">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="400"/>
-      <c r="I27" s="398">
+      <c r="H27" s="416"/>
+      <c r="I27" s="414">
         <f>C27+E27+G27</f>
-        <v>0.38818181818181818</v>
-      </c>
-      <c r="J27" s="398"/>
+        <v>0.3883939393939394</v>
+      </c>
+      <c r="J27" s="414"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="363">
+      <c r="C28" s="436">
         <v>7000</v>
       </c>
-      <c r="D28" s="364"/>
-      <c r="E28" s="363">
+      <c r="D28" s="398"/>
+      <c r="E28" s="436">
         <v>7000</v>
       </c>
-      <c r="F28" s="364"/>
-      <c r="G28" s="383"/>
-      <c r="H28" s="384"/>
-      <c r="I28" s="377">
+      <c r="F28" s="398"/>
+      <c r="G28" s="386"/>
+      <c r="H28" s="387"/>
+      <c r="I28" s="426">
         <f>C28+E28+G28</f>
         <v>14000</v>
       </c>
-      <c r="J28" s="377"/>
+      <c r="J28" s="426"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="365">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="D29" s="364"/>
-      <c r="E29" s="365">
+      <c r="C29" s="437">
+        <v>18.62</v>
+      </c>
+      <c r="D29" s="398"/>
+      <c r="E29" s="437">
         <v>18</v>
       </c>
-      <c r="F29" s="364"/>
-      <c r="G29" s="386"/>
-      <c r="H29" s="387"/>
-      <c r="I29" s="385"/>
-      <c r="J29" s="385"/>
+      <c r="F29" s="398"/>
+      <c r="G29" s="406"/>
+      <c r="H29" s="407"/>
+      <c r="I29" s="405"/>
+      <c r="J29" s="405"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="361">
+      <c r="C30" s="424">
         <f>C29*$I$5/1000000</f>
-        <v>10920.20601</v>
-      </c>
-      <c r="D30" s="362"/>
-      <c r="E30" s="361">
+        <v>10931.948167</v>
+      </c>
+      <c r="D30" s="432"/>
+      <c r="E30" s="424">
         <f>E29*$I$5/1000000</f>
         <v>10567.9413</v>
       </c>
-      <c r="F30" s="362"/>
-      <c r="G30" s="407">
+      <c r="F30" s="432"/>
+      <c r="G30" s="368">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="408"/>
-      <c r="I30" s="376"/>
-      <c r="J30" s="376"/>
+      <c r="H30" s="369"/>
+      <c r="I30" s="423"/>
+      <c r="J30" s="423"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="370">
+      <c r="C31" s="433">
         <f>C28*C29</f>
-        <v>130200.00000000001</v>
-      </c>
-      <c r="D31" s="371"/>
-      <c r="E31" s="372">
+        <v>130340</v>
+      </c>
+      <c r="D31" s="434"/>
+      <c r="E31" s="425">
         <f>E28*E29</f>
         <v>126000</v>
       </c>
-      <c r="F31" s="373"/>
-      <c r="G31" s="409">
+      <c r="F31" s="435"/>
+      <c r="G31" s="370">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="410"/>
-      <c r="I31" s="372">
+      <c r="H31" s="371"/>
+      <c r="I31" s="425">
         <f>C31+E31+G31</f>
-        <v>256200</v>
-      </c>
-      <c r="J31" s="372"/>
+        <v>256340</v>
+      </c>
+      <c r="J31" s="425"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="366"/>
-      <c r="D32" s="367"/>
-      <c r="E32" s="374">
+      <c r="C32" s="428"/>
+      <c r="D32" s="429"/>
+      <c r="E32" s="427">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>18.3</v>
-      </c>
-      <c r="F32" s="375"/>
+        <v>18.309999999999999</v>
+      </c>
+      <c r="F32" s="409"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
-      <c r="I32" s="374">
+      <c r="I32" s="427">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>18.3</v>
-      </c>
-      <c r="J32" s="374"/>
+        <v>18.309999999999999</v>
+      </c>
+      <c r="J32" s="427"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="368"/>
-      <c r="D33" s="369"/>
-      <c r="E33" s="361">
+      <c r="C33" s="430"/>
+      <c r="D33" s="431"/>
+      <c r="E33" s="424">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>10744.073655</v>
-      </c>
-      <c r="F33" s="362"/>
+        <v>10749.9447335</v>
+      </c>
+      <c r="F33" s="432"/>
       <c r="G33" s="116"/>
       <c r="H33" s="116"/>
-      <c r="I33" s="361">
+      <c r="I33" s="424">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>10744.073655</v>
-      </c>
-      <c r="J33" s="361"/>
+        <v>10749.9447335</v>
+      </c>
+      <c r="J33" s="424"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="434">
+      <c r="C35" s="364">
         <f>IF(C26="",C29,E29)</f>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="D35" s="435"/>
-      <c r="G35" s="436" t="s">
+        <v>18.62</v>
+      </c>
+      <c r="D35" s="365"/>
+      <c r="G35" s="366" t="s">
         <v>316</v>
       </c>
-      <c r="H35" s="437"/>
-      <c r="I35" s="432">
+      <c r="H35" s="367"/>
+      <c r="I35" s="362">
         <f ca="1">'FCFF Model'!C31</f>
-        <v>23.071472526617175</v>
-      </c>
-      <c r="J35" s="433"/>
+        <v>23.768402758652556</v>
+      </c>
+      <c r="J35" s="363"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="143" t="s">
         <v>317</v>
       </c>
-      <c r="C36" s="434">
+      <c r="C36" s="364">
         <f>IF(C26="",C29,E32)</f>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="D36" s="435"/>
-      <c r="G36" s="431" t="s">
+        <v>18.62</v>
+      </c>
+      <c r="D36" s="365"/>
+      <c r="G36" s="361" t="s">
         <v>314</v>
       </c>
-      <c r="H36" s="431"/>
-      <c r="I36" s="432">
+      <c r="H36" s="361"/>
+      <c r="I36" s="362">
         <f ca="1">'FCFF Model'!C32</f>
-        <v>16.067712549030936</v>
-      </c>
-      <c r="J36" s="433"/>
+        <v>16.439219262117337</v>
+      </c>
+      <c r="J36" s="363"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -5275,11 +5275,11 @@
       </c>
       <c r="E45" s="329">
         <f ca="1">I35/C29-1</f>
-        <v>0.24040174874285869</v>
+        <v>0.2764985369845625</v>
       </c>
       <c r="F45" s="332">
         <f ca="1">I35/C36-1</f>
-        <v>0.24040174874285869</v>
+        <v>0.2764985369845625</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
@@ -5288,11 +5288,11 @@
       </c>
       <c r="E46" s="329">
         <f ca="1">I36/C29-1</f>
-        <v>-0.13614448661124001</v>
+        <v>-0.11712034038037933</v>
       </c>
       <c r="F46" s="332">
         <f ca="1">I36/C36-1</f>
-        <v>-0.13614448661124001</v>
+        <v>-0.11712034038037933</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
@@ -5302,11 +5302,11 @@
       </c>
       <c r="E48" s="353">
         <f ca="1">IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
-        <v>0.74166705486530771</v>
+        <v>0.77776384310701141</v>
       </c>
       <c r="F48" s="329">
         <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.74166705486530771</v>
+        <v>0.77776384310701141</v>
       </c>
       <c r="G48" s="73"/>
     </row>
@@ -5317,11 +5317,11 @@
       <c r="D49" s="326"/>
       <c r="E49" s="328">
         <f ca="1">IF(E46&gt;=0,100,E45/ABS(E46))</f>
-        <v>1.765783945620397</v>
+        <v>2.3608071500352565</v>
       </c>
       <c r="F49" s="328">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>1.765783945620397</v>
+        <v>2.3608071500352565</v>
       </c>
       <c r="G49" s="73"/>
     </row>
@@ -5331,11 +5331,11 @@
       </c>
       <c r="E50" s="358">
         <f ca="1">MAX(J25*2/E45,1)</f>
-        <v>1.663881407234906</v>
+        <v>1.4466622657838253</v>
       </c>
       <c r="F50" s="358">
         <f ca="1">MAX(J25*2/F45,1)</f>
-        <v>1.663881407234906</v>
+        <v>1.4466622657838253</v>
       </c>
       <c r="G50" s="330"/>
       <c r="H50" s="84"/>
@@ -5347,11 +5347,11 @@
       </c>
       <c r="E51" s="327">
         <f ca="1">MIN(MAX(E48-ABS((1-E48)/E49),0)/E50,H51)</f>
-        <v>0.35781862696113348</v>
+        <v>0.4</v>
       </c>
       <c r="F51" s="327">
         <f ca="1">MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
-        <v>0.35781862696113348</v>
+        <v>0.4</v>
       </c>
       <c r="G51" s="330" t="s">
         <v>304</v>
@@ -6296,12 +6296,38 @@
     <row r="965" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
@@ -6318,38 +6344,12 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -9700,11 +9700,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="59">
         <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
-        <v>8727494.8436513729</v>
+        <v>8727518.2896439247</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.2858574368775032</v>
+        <v>0.28585551836806655</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9724,7 +9724,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>14.865232756897004</v>
+        <v>14.865272691625439</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10604,11 +10604,11 @@
       </c>
       <c r="D50" s="208">
         <f>IF(E50=0, 0,E50/C50)</f>
-        <v>0.91374227183141843</v>
+        <v>0.96082257816132333</v>
       </c>
       <c r="E50" s="212">
         <f>MAX(C50,C50*Dashboard!I10)</f>
-        <v>-455.04365137204638</v>
+        <v>-478.48964392433902</v>
       </c>
       <c r="I50" s="154"/>
     </row>
@@ -10639,7 +10639,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>860201</v>
       </c>
-      <c r="E53" s="371"/>
+      <c r="E53" s="434"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10658,7 +10658,7 @@
       <c r="D54" s="448">
         <v>0</v>
       </c>
-      <c r="E54" s="364"/>
+      <c r="E54" s="398"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10672,7 +10672,7 @@
       <c r="D55" s="448">
         <v>0</v>
       </c>
-      <c r="E55" s="364"/>
+      <c r="E55" s="398"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -10736,7 +10736,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="446">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>9678098.2633486278</v>
+        <v>10253440.510356076</v>
       </c>
       <c r="E60" s="447"/>
       <c r="F60" s="6"/>
@@ -12463,11 +12463,11 @@
       <c r="C10" s="187"/>
       <c r="D10" s="217">
         <f ca="1">Dashboard!C12</f>
-        <v>7.1999999999999995E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E10" s="18">
         <f ca="1">IF(E4="","",D10)</f>
-        <v>7.1999999999999995E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F10" s="18" t="str">
         <f>IF(F4="","",D10)</f>
@@ -12475,7 +12475,7 @@
       </c>
       <c r="G10" s="223">
         <f ca="1">Dashboard!C12</f>
-        <v>7.1999999999999995E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H10" s="62"/>
       <c r="I10" s="57"/>
@@ -12488,11 +12488,11 @@
       <c r="C11" s="112"/>
       <c r="D11" s="218">
         <f ca="1">IF(D4="","",1+D10)</f>
-        <v>1.0720000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="E11" s="219">
         <f ca="1">IF(E4="","",(1+D10)*(1+E10))</f>
-        <v>1.1491840000000002</v>
+        <v>1.1236000000000002</v>
       </c>
       <c r="F11" s="219" t="str">
         <f>IF(F4="","",(1+D10)*(1+E10)*(1+F10))</f>
@@ -12500,7 +12500,7 @@
       </c>
       <c r="G11" s="224">
         <f ca="1">IF(F4="",IF(E4="",D11,E11),F11)*(1+G10)</f>
-        <v>1.2319252480000003</v>
+        <v>1.1910160000000003</v>
       </c>
       <c r="H11" s="62"/>
       <c r="I11" s="57"/>
@@ -12513,11 +12513,11 @@
       <c r="C12" s="336"/>
       <c r="D12" s="192">
         <f ca="1">IF(D9="","",D9/D11)</f>
-        <v>1.0191460239485428</v>
+        <v>1.0306835261064509</v>
       </c>
       <c r="E12" s="193">
         <f ca="1">IF(E9="","",E9/E11)</f>
-        <v>1.5933183096654402</v>
+        <v>1.6295976400628065</v>
       </c>
       <c r="F12" s="193" t="str">
         <f>IF(F9="","",F9/F11)</f>
@@ -12561,7 +12561,7 @@
       </c>
       <c r="G15" s="134">
         <f>C15+C16+C17+C18</f>
-        <v>1488299.043651372</v>
+        <v>1488322.4896439244</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -12581,7 +12581,7 @@
       </c>
       <c r="G16" s="194">
         <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
-        <v>2.5349670314429829</v>
+        <v>2.535006966171419</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" customHeight="1">
@@ -12613,11 +12613,11 @@
       </c>
       <c r="C18" s="83">
         <f>-Asset_Model!E50</f>
-        <v>455.04365137204638</v>
+        <v>478.48964392433902</v>
       </c>
       <c r="D18" s="213">
         <f>C18/(Dashboard!I5/Data!C4)</f>
-        <v>7.7505972943820529E-4</v>
+        <v>8.1499445787403294E-4</v>
       </c>
       <c r="E18" s="451"/>
       <c r="F18" s="145">
@@ -12626,7 +12626,7 @@
       </c>
       <c r="G18" s="144">
         <f>SUM(D16:D18)</f>
-        <v>-1.4637037408861557</v>
+        <v>-1.4636638061577198</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15.75" customHeight="1">
@@ -12686,15 +12686,15 @@
       </c>
       <c r="E22" s="202">
         <f ca="1">IF(G9&lt;0,G9,G9*D22/G11)</f>
-        <v>14.863043933446273</v>
+        <v>15.373562642101948</v>
       </c>
       <c r="F22" s="342">
         <f ca="1">E22+$G$16</f>
-        <v>17.398010964889256</v>
+        <v>17.908569608273368</v>
       </c>
       <c r="G22" s="345">
         <f ca="1">ROUND(F22*Exchange_Rate,2)</f>
-        <v>17.399999999999999</v>
+        <v>17.91</v>
       </c>
       <c r="I22" s="73"/>
     </row>
@@ -12711,15 +12711,15 @@
       </c>
       <c r="E23" s="341">
         <f ca="1">IF(G9&lt;0,G9,G9*D23/G11)</f>
-        <v>23.780870293514035</v>
+        <v>24.597700227363116</v>
       </c>
       <c r="F23" s="343">
         <f ca="1">E23+$G$16</f>
-        <v>26.315837324957016</v>
+        <v>27.132707193534536</v>
       </c>
       <c r="G23" s="348">
         <f ca="1">ROUND(F23*Exchange_Rate,2)</f>
-        <v>26.32</v>
+        <v>27.13</v>
       </c>
       <c r="I23" s="73"/>
     </row>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="G24" s="347">
         <f ca="1">MIN(G22,G23)+ABS(G22-G23)*'Qualitative Analysis'!$E$64</f>
-        <v>22.540832653061223</v>
+        <v>23.2237306122449</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15.75" customHeight="1">
@@ -12768,7 +12768,7 @@
       </c>
       <c r="C27" s="238">
         <f ca="1">MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$8</f>
-        <v>20.084640686288672</v>
+        <v>20.549024077646671</v>
       </c>
       <c r="D27" s="117" t="str">
         <f>Dashboard!J4</f>
@@ -12776,11 +12776,11 @@
       </c>
       <c r="E27" s="118">
         <f ca="1">(C27-G16)/C9</f>
-        <v>12.264273021170759</v>
+        <v>12.588771073938064</v>
       </c>
       <c r="F27" s="155">
         <f ca="1">C27/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.96488881228218459</v>
+        <v>0.98719831464917918</v>
       </c>
       <c r="G27" s="86"/>
       <c r="H27" s="6"/>
@@ -12807,7 +12807,7 @@
       </c>
       <c r="C30" s="335">
         <f ca="1">IF(G9&lt;0,G9,G9*17/G11)</f>
-        <v>25.267174686858663</v>
+        <v>26.135056491573312</v>
       </c>
       <c r="D30" s="334" t="str">
         <f>D27</f>
@@ -12815,11 +12815,11 @@
       </c>
       <c r="E30" s="118">
         <f ca="1">(C30-G16)/C9</f>
-        <v>15.885993468772414</v>
+        <v>16.492469112823805</v>
       </c>
       <c r="F30" s="155">
         <f ca="1">C30/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.2138141336844113</v>
+        <v>1.2555064563910758</v>
       </c>
       <c r="I30" s="73"/>
     </row>
@@ -12829,7 +12829,7 @@
       </c>
       <c r="C31" s="350">
         <f ca="1">MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E64</f>
-        <v>23.071472526617175</v>
+        <v>23.768402758652556</v>
       </c>
       <c r="D31" s="334" t="str">
         <f>D30</f>
@@ -12837,11 +12837,11 @@
       </c>
       <c r="E31" s="118">
         <f ca="1">(C31-G16)/C9</f>
-        <v>14.35156660158445</v>
+        <v>14.838575821246907</v>
       </c>
       <c r="F31" s="155">
         <f ca="1">C31/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.1083344214295758</v>
+        <v>1.1418143722479979</v>
       </c>
       <c r="I31" s="73"/>
     </row>
@@ -12851,7 +12851,7 @@
       </c>
       <c r="C32" s="350">
         <f ca="1">IF(Asset_Model!D7&gt;C27,Asset_Model!D7,C27)/(1+Dashboard!C16)</f>
-        <v>16.067712549030936</v>
+        <v>16.439219262117337</v>
       </c>
       <c r="D32" s="334" t="str">
         <f>D30</f>
@@ -12859,11 +12859,11 @@
       </c>
       <c r="E32" s="118">
         <f ca="1">(C32-G16)/C9</f>
-        <v>9.4571152158089955</v>
+        <v>9.7167080764898497</v>
       </c>
       <c r="F32" s="155">
         <f ca="1">C32/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.77187959594610556</v>
+        <v>0.78972647058450518</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/0590.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0590.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2D05734-D5DC-47B4-BA8D-70F6F376B3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDB778F-8B76-4952-8E42-42BF2DB62EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31410" yWindow="2610" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="351">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1092,9 +1092,6 @@
     <t>1. Value Trap</t>
   </si>
   <si>
-    <t>a) a company with mediocre dividend and low trading volume</t>
-  </si>
-  <si>
     <t>2. Growth Trap</t>
   </si>
   <si>
@@ -1129,9 +1126,6 @@
   </si>
   <si>
     <t>4. The probability of an ex-post recession affecting the company</t>
-  </si>
-  <si>
-    <t>a) High growth company with unproven product or product you don't trust</t>
   </si>
   <si>
     <t>FY</t>
@@ -1202,6 +1196,42 @@
   <si>
     <t>1. 与其他同等的珠宝店(如周大福)并无太大区别，竞争激烈
 2. 高利润的高端产品受经济影响很大，周期性强</t>
+  </si>
+  <si>
+    <t>What Went Wrong?</t>
+  </si>
+  <si>
+    <t>Can it be Fixed?</t>
+  </si>
+  <si>
+    <t>a) Don't buy a mediocre value stock with low trading volume and mediocre dividend</t>
+  </si>
+  <si>
+    <t>b) It's far better to buy a wonderful company at a fair price than a fair company at a wonderful price, but it takes more efforts on research</t>
+  </si>
+  <si>
+    <t>a) Don't buy a High growth company with unproven products or products you don't trust</t>
+  </si>
+  <si>
+    <t>b) Don't buy into unsustainable PE ratios</t>
+  </si>
+  <si>
+    <t>DuPont Formula</t>
+  </si>
+  <si>
+    <t>EBIT / Sales</t>
+  </si>
+  <si>
+    <t>Sales / Total Assets</t>
+  </si>
+  <si>
+    <t>Total Assets / Common Equity</t>
+  </si>
+  <si>
+    <t>ROE = EBIT / Common Equity</t>
+  </si>
+  <si>
+    <t>SGR = b * ROE</t>
   </si>
 </sst>
 </file>
@@ -1588,7 +1618,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="111">
+  <borders count="121">
     <border>
       <left/>
       <right/>
@@ -2982,13 +3012,139 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="453">
+  <cellXfs count="469">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3896,201 +4052,201 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4128,6 +4284,52 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4136,7 +4338,15 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4519,10 +4729,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L965"/>
+  <dimension ref="A1:L967"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:F29"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4566,27 +4776,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="372" t="s">
-        <v>327</v>
-      </c>
-      <c r="D3" s="373"/>
+      <c r="C3" s="411" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" s="412"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="384" t="s">
+      <c r="I3" s="421" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="385"/>
+      <c r="J3" s="422"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="374" t="s">
-        <v>328</v>
-      </c>
-      <c r="D4" s="375"/>
+      <c r="C4" s="413" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4" s="414"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4603,10 +4813,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="376">
+      <c r="C5" s="415">
         <v>45076</v>
       </c>
-      <c r="D5" s="375"/>
+      <c r="D5" s="414"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4614,10 +4824,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="386">
+      <c r="I5" s="383">
         <v>587107850</v>
       </c>
-      <c r="J5" s="387"/>
+      <c r="J5" s="384"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4640,11 +4850,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="388">
+      <c r="I6" s="423">
         <f>I4*I5/1000000</f>
         <v>11742.156999999999</v>
       </c>
-      <c r="J6" s="389"/>
+      <c r="J6" s="424"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4696,7 +4906,7 @@
         <v>255</v>
       </c>
       <c r="C10" s="279" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D10" s="279">
         <v>3.6810000000000002E-2</v>
@@ -4718,30 +4928,30 @@
       <c r="B11" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="403">
+      <c r="C11" s="381">
         <f ca="1">C12-D10</f>
         <v>2.3189999999999995E-2</v>
       </c>
-      <c r="D11" s="404"/>
+      <c r="D11" s="382"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="401" t="s">
+      <c r="I11" s="378" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="402"/>
+      <c r="J11" s="379"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="399">
+      <c r="C12" s="429">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="400"/>
+      <c r="D12" s="430"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
@@ -4761,7 +4971,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="349" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D14" s="239"/>
       <c r="E14" s="190">
@@ -4794,7 +5004,7 @@
         <v>21</v>
       </c>
       <c r="I15" s="88" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J15" s="88" t="s">
         <v>20</v>
@@ -4805,28 +5015,28 @@
         <f>I4</f>
         <v>20</v>
       </c>
-      <c r="C16" s="420">
+      <c r="C16" s="404">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
-        <f ca="1">I35/B16-(1+J25)</f>
+        <f ca="1">I37/B16-(1+J27)</f>
         <v>-1.157986206737216E-2</v>
       </c>
-      <c r="E16" s="393" t="s">
+      <c r="E16" s="395" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="390">
+      <c r="F16" s="425">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
         <v>2.535006966171419</v>
       </c>
-      <c r="G16" s="393" t="s">
+      <c r="G16" s="395" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
         <v>17.464993033828581</v>
       </c>
-      <c r="I16" s="411">
+      <c r="I16" s="390">
         <v>0.55000000000000004</v>
       </c>
       <c r="J16" s="158">
@@ -4836,22 +5046,22 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
-        <f ca="1">(I35+I36)/2</f>
+        <f ca="1">(I37+I38)/2</f>
         <v>20.103811010384945</v>
       </c>
-      <c r="C17" s="421"/>
+      <c r="C17" s="405"/>
       <c r="D17" s="268">
-        <f ca="1">I35/B17-(1+J25)</f>
+        <f ca="1">I37/B17-(1+J27)</f>
         <v>-1.7716563970154198E-2</v>
       </c>
-      <c r="E17" s="394"/>
-      <c r="F17" s="391"/>
-      <c r="G17" s="394"/>
+      <c r="E17" s="396"/>
+      <c r="F17" s="426"/>
+      <c r="G17" s="396"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
         <v>17.568804044213525</v>
       </c>
-      <c r="I17" s="412"/>
+      <c r="I17" s="391"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
         <v>2.735799693480449E-2</v>
@@ -4859,22 +5069,22 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="323">
-        <f>C35</f>
+        <f>C37</f>
         <v>18.62</v>
       </c>
-      <c r="C18" s="422"/>
+      <c r="C18" s="406"/>
       <c r="D18" s="157">
-        <f ca="1">I35/B18-(1+J25)</f>
+        <f ca="1">I37/B18-(1+J27)</f>
         <v>7.6498536984562548E-2</v>
       </c>
-      <c r="E18" s="395"/>
-      <c r="F18" s="392"/>
-      <c r="G18" s="395"/>
+      <c r="E18" s="397"/>
+      <c r="F18" s="427"/>
+      <c r="G18" s="397"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
         <v>16.084993033828582</v>
       </c>
-      <c r="I18" s="413"/>
+      <c r="I18" s="392"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>2.9538131041890441E-2</v>
@@ -4893,7 +5103,7 @@
         <v>238</v>
       </c>
       <c r="D20" s="270" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E20" s="250" t="s">
         <v>247</v>
@@ -4907,336 +5117,338 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="379" t="s">
-        <v>334</v>
-      </c>
-      <c r="D21" s="380"/>
-      <c r="E21" s="380"/>
-      <c r="F21" s="380"/>
-      <c r="G21" s="380"/>
-      <c r="H21" s="380"/>
-      <c r="I21" s="380"/>
-      <c r="J21" s="381"/>
+      <c r="C21" s="418" t="s">
+        <v>332</v>
+      </c>
+      <c r="D21" s="419"/>
+      <c r="E21" s="419"/>
+      <c r="F21" s="419"/>
+      <c r="G21" s="419"/>
+      <c r="H21" s="419"/>
+      <c r="I21" s="419"/>
+      <c r="J21" s="420"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="397" t="s">
-        <v>337</v>
-      </c>
-      <c r="D22" s="398"/>
-      <c r="E22" s="398"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="397" t="s">
-        <v>340</v>
-      </c>
-      <c r="H22" s="397"/>
-      <c r="I22" s="398"/>
-      <c r="J22" s="398"/>
+      <c r="C22" s="380" t="s">
+        <v>335</v>
+      </c>
+      <c r="D22" s="364"/>
+      <c r="E22" s="364"/>
+      <c r="F22" s="364"/>
+      <c r="G22" s="380" t="s">
+        <v>338</v>
+      </c>
+      <c r="H22" s="380"/>
+      <c r="I22" s="364"/>
+      <c r="J22" s="364"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="382" t="s">
-        <v>338</v>
-      </c>
-      <c r="D23" s="383"/>
-      <c r="E23" s="383"/>
-      <c r="F23" s="383"/>
-      <c r="G23" s="382" t="s">
+      <c r="C23" s="393" t="s">
+        <v>336</v>
+      </c>
+      <c r="D23" s="394"/>
+      <c r="E23" s="394"/>
+      <c r="F23" s="394"/>
+      <c r="G23" s="393" t="s">
+        <v>337</v>
+      </c>
+      <c r="H23" s="393"/>
+      <c r="I23" s="394"/>
+      <c r="J23" s="394"/>
+    </row>
+    <row r="24" spans="1:10" ht="52.5" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="H23" s="382"/>
-      <c r="I23" s="383"/>
-      <c r="J23" s="383"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="20" t="s">
+      <c r="C24" s="454"/>
+      <c r="D24" s="455"/>
+      <c r="E24" s="455"/>
+      <c r="F24" s="455"/>
+      <c r="G24" s="455"/>
+      <c r="H24" s="455"/>
+      <c r="I24" s="455"/>
+      <c r="J24" s="456"/>
+    </row>
+    <row r="25" spans="1:10" ht="52.5" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="453" t="s">
+        <v>340</v>
+      </c>
+      <c r="C25" s="457"/>
+      <c r="D25" s="458"/>
+      <c r="E25" s="458"/>
+      <c r="F25" s="458"/>
+      <c r="G25" s="458"/>
+      <c r="H25" s="458"/>
+      <c r="I25" s="458"/>
+      <c r="J25" s="459"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C27" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D27" s="34">
         <v>660000</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="360" t="s">
-        <v>326</v>
-      </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="359">
+      <c r="E27" s="12"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="360" t="s">
+        <v>324</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="359">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="377"/>
-      <c r="D26" s="378"/>
-      <c r="E26" s="417" t="str">
-        <f>IF(C26="","","Action_Planning")</f>
-        <v/>
-      </c>
-      <c r="F26" s="418"/>
-      <c r="G26" s="418"/>
-      <c r="H26" s="419"/>
-      <c r="I26" s="396" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="396"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="410">
-        <f>C31/D25</f>
-        <v>0.19748484848484849</v>
-      </c>
-      <c r="D27" s="409"/>
-      <c r="E27" s="408">
-        <f>E31/D25</f>
-        <v>0.19090909090909092</v>
-      </c>
-      <c r="F27" s="409"/>
-      <c r="G27" s="415">
-        <f>G31/D25</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="416"/>
-      <c r="I27" s="414">
-        <f>C27+E27+G27</f>
-        <v>0.3883939393939394</v>
-      </c>
-      <c r="J27" s="414"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="436">
-        <v>7000</v>
-      </c>
-      <c r="D28" s="398"/>
-      <c r="E28" s="436">
-        <v>7000</v>
-      </c>
-      <c r="F28" s="398"/>
-      <c r="G28" s="386"/>
-      <c r="H28" s="387"/>
-      <c r="I28" s="426">
-        <f>C28+E28+G28</f>
-        <v>14000</v>
-      </c>
-      <c r="J28" s="426"/>
+        <v>31</v>
+      </c>
+      <c r="C28" s="416"/>
+      <c r="D28" s="417"/>
+      <c r="E28" s="401" t="str">
+        <f>IF(C28="","","Action_Planning")</f>
+        <v/>
+      </c>
+      <c r="F28" s="402"/>
+      <c r="G28" s="402"/>
+      <c r="H28" s="403"/>
+      <c r="I28" s="428" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="428"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="437">
-        <v>18.62</v>
-      </c>
-      <c r="D29" s="398"/>
-      <c r="E29" s="437">
-        <v>18</v>
-      </c>
-      <c r="F29" s="398"/>
-      <c r="G29" s="406"/>
-      <c r="H29" s="407"/>
-      <c r="I29" s="405"/>
-      <c r="J29" s="405"/>
+        <v>33</v>
+      </c>
+      <c r="C29" s="389">
+        <f>C33/D27</f>
+        <v>0.19748484848484849</v>
+      </c>
+      <c r="D29" s="375"/>
+      <c r="E29" s="388">
+        <f>E33/D27</f>
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="F29" s="375"/>
+      <c r="G29" s="399">
+        <f>G33/D27</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="400"/>
+      <c r="I29" s="398">
+        <f>C29+E29+G29</f>
+        <v>0.3883939393939394</v>
+      </c>
+      <c r="J29" s="398"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="363">
+        <v>7000</v>
+      </c>
+      <c r="D30" s="364"/>
+      <c r="E30" s="363">
+        <v>7000</v>
+      </c>
+      <c r="F30" s="364"/>
+      <c r="G30" s="383"/>
+      <c r="H30" s="384"/>
+      <c r="I30" s="377">
+        <f>C30+E30+G30</f>
+        <v>14000</v>
+      </c>
+      <c r="J30" s="377"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B31" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="365">
+        <v>18.62</v>
+      </c>
+      <c r="D31" s="364"/>
+      <c r="E31" s="365">
+        <v>18</v>
+      </c>
+      <c r="F31" s="364"/>
+      <c r="G31" s="386"/>
+      <c r="H31" s="387"/>
+      <c r="I31" s="385"/>
+      <c r="J31" s="385"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="424">
-        <f>C29*$I$5/1000000</f>
+      <c r="C32" s="361">
+        <f>C31*$I$5/1000000</f>
         <v>10931.948167</v>
       </c>
-      <c r="D30" s="432"/>
-      <c r="E30" s="424">
-        <f>E29*$I$5/1000000</f>
+      <c r="D32" s="362"/>
+      <c r="E32" s="361">
+        <f>E31*$I$5/1000000</f>
         <v>10567.9413</v>
       </c>
-      <c r="F30" s="432"/>
-      <c r="G30" s="368">
-        <f>G29*$I$5/1000000</f>
+      <c r="F32" s="362"/>
+      <c r="G32" s="407">
+        <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="369"/>
-      <c r="I30" s="423"/>
-      <c r="J30" s="423"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B31" s="2" t="s">
+      <c r="H32" s="408"/>
+      <c r="I32" s="376"/>
+      <c r="J32" s="376"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="433">
-        <f>C28*C29</f>
+      <c r="C33" s="370">
+        <f>C30*C31</f>
         <v>130340</v>
       </c>
-      <c r="D31" s="434"/>
-      <c r="E31" s="425">
-        <f>E28*E29</f>
+      <c r="D33" s="371"/>
+      <c r="E33" s="372">
+        <f>E30*E31</f>
         <v>126000</v>
       </c>
-      <c r="F31" s="435"/>
-      <c r="G31" s="370">
-        <f>G28*G29</f>
+      <c r="F33" s="373"/>
+      <c r="G33" s="409">
+        <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H31" s="371"/>
-      <c r="I31" s="425">
-        <f>C31+E31+G31</f>
+      <c r="H33" s="410"/>
+      <c r="I33" s="372">
+        <f>C33+E33+G33</f>
         <v>256340</v>
       </c>
-      <c r="J31" s="425"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B32" s="1" t="s">
+      <c r="J33" s="372"/>
+    </row>
+    <row r="34" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="428"/>
-      <c r="D32" s="429"/>
-      <c r="E32" s="427">
-        <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
+      <c r="C34" s="366"/>
+      <c r="D34" s="367"/>
+      <c r="E34" s="374">
+        <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>18.309999999999999</v>
       </c>
-      <c r="F32" s="409"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="427">
-        <f>IF(I31=0,"",I31/I28)</f>
+      <c r="F34" s="375"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="374">
+        <f>IF(I33=0,"",I33/I30)</f>
         <v>18.309999999999999</v>
       </c>
-      <c r="J32" s="427"/>
-    </row>
-    <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="1" t="s">
+      <c r="J34" s="374"/>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="430"/>
-      <c r="D33" s="431"/>
-      <c r="E33" s="424">
-        <f>IF(E32="-","-",E32*$I$5/1000000)</f>
+      <c r="C35" s="368"/>
+      <c r="D35" s="369"/>
+      <c r="E35" s="361">
+        <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>10749.9447335</v>
       </c>
-      <c r="F33" s="432"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="424">
-        <f>IF(I32="","",I32*$I$5/1000000)</f>
+      <c r="F35" s="362"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="361">
+        <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>10749.9447335</v>
       </c>
-      <c r="J33" s="424"/>
-    </row>
-    <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
-    <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="143" t="s">
+      <c r="J35" s="361"/>
+    </row>
+    <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="37" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B37" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="364">
-        <f>IF(C26="",C29,E29)</f>
+      <c r="C37" s="434">
+        <f>IF(C28="",C31,E31)</f>
         <v>18.62</v>
       </c>
-      <c r="D35" s="365"/>
-      <c r="G35" s="366" t="s">
-        <v>316</v>
-      </c>
-      <c r="H35" s="367"/>
-      <c r="I35" s="362">
+      <c r="D37" s="435"/>
+      <c r="G37" s="436" t="s">
+        <v>315</v>
+      </c>
+      <c r="H37" s="437"/>
+      <c r="I37" s="432">
         <f ca="1">'FCFF Model'!C31</f>
         <v>23.768402758652556</v>
       </c>
-      <c r="J35" s="363"/>
-    </row>
-    <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="143" t="s">
-        <v>317</v>
-      </c>
-      <c r="C36" s="364">
-        <f>IF(C26="",C29,E32)</f>
+      <c r="J37" s="433"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B38" s="143" t="s">
+        <v>316</v>
+      </c>
+      <c r="C38" s="434">
+        <f>IF(C28="",C31,E34)</f>
         <v>18.62</v>
       </c>
-      <c r="D36" s="365"/>
-      <c r="G36" s="361" t="s">
-        <v>314</v>
-      </c>
-      <c r="H36" s="361"/>
-      <c r="I36" s="362">
+      <c r="D38" s="435"/>
+      <c r="G38" s="431" t="s">
+        <v>313</v>
+      </c>
+      <c r="H38" s="431"/>
+      <c r="I38" s="432">
         <f ca="1">'FCFF Model'!C32</f>
         <v>16.439219262117337</v>
       </c>
-      <c r="J36" s="363"/>
-    </row>
-    <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
-    <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="21" t="s">
+      <c r="J38" s="433"/>
+    </row>
+    <row r="39" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="40" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B40" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="G38" s="319" t="s">
+      <c r="G40" s="319" t="s">
         <v>134</v>
       </c>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="324"/>
-    </row>
-    <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="3" t="s">
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="324"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B41" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F39" s="208">
+      <c r="F41" s="208">
         <f>'Qualitative Analysis'!E8</f>
         <v>0.67999999999999994</v>
-      </c>
-      <c r="G39" s="331"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-    </row>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="F40" s="208">
-        <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
-        <v>0.75</v>
-      </c>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-    </row>
-    <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F41" s="329">
-        <f>'Qualitative Analysis'!E64</f>
-        <v>0.57632653061224492</v>
       </c>
       <c r="G41" s="331"/>
       <c r="H41" s="114"/>
@@ -5245,10 +5457,11 @@
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F42" s="332">
-        <v>0.5</v>
+        <v>297</v>
+      </c>
+      <c r="F42" s="208">
+        <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
+        <v>0.75</v>
       </c>
       <c r="G42" s="73"/>
       <c r="H42" s="73"/>
@@ -5256,141 +5469,172 @@
       <c r="J42" s="73"/>
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1">
-      <c r="G43" s="114"/>
+      <c r="B43" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F43" s="329">
+        <f>'Qualitative Analysis'!E64</f>
+        <v>0.57632653061224492</v>
+      </c>
+      <c r="G43" s="331"/>
       <c r="H43" s="114"/>
       <c r="I43" s="114"/>
       <c r="J43" s="114"/>
     </row>
     <row r="44" spans="2:11" ht="15.75" customHeight="1">
-      <c r="E44" s="258" t="s">
+      <c r="B44" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F44" s="332">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+    </row>
+    <row r="45" spans="2:11" ht="15.75" customHeight="1">
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" customHeight="1">
+      <c r="E46" s="258" t="s">
+        <v>317</v>
+      </c>
+      <c r="F46" s="258" t="s">
         <v>318</v>
       </c>
-      <c r="F44" s="258" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B45" s="3" t="s">
+    </row>
+    <row r="47" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B47" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E45" s="329">
-        <f ca="1">I35/C29-1</f>
+      <c r="E47" s="329">
+        <f ca="1">I37/C31-1</f>
         <v>0.2764985369845625</v>
       </c>
-      <c r="F45" s="332">
-        <f ca="1">I35/C36-1</f>
+      <c r="F47" s="332">
+        <f ca="1">I37/C38-1</f>
         <v>0.2764985369845625</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B46" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E46" s="329">
-        <f ca="1">I36/C29-1</f>
-        <v>-0.11712034038037933</v>
-      </c>
-      <c r="F46" s="332">
-        <f ca="1">I36/C36-1</f>
-        <v>-0.11712034038037933</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E48" s="353">
-        <f ca="1">IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
-        <v>0.77776384310701141</v>
-      </c>
-      <c r="F48" s="329">
-        <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.77776384310701141</v>
-      </c>
-      <c r="G48" s="73"/>
-    </row>
-    <row r="49" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B49" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D49" s="326"/>
-      <c r="E49" s="328">
-        <f ca="1">IF(E46&gt;=0,100,E45/ABS(E46))</f>
-        <v>2.3608071500352565</v>
-      </c>
-      <c r="F49" s="328">
-        <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>2.3608071500352565</v>
-      </c>
-      <c r="G49" s="73"/>
-    </row>
+        <v>300</v>
+      </c>
+      <c r="E48" s="329">
+        <f ca="1">I38/C31-1</f>
+        <v>-0.11712034038037933</v>
+      </c>
+      <c r="F48" s="332">
+        <f ca="1">I38/C38-1</f>
+        <v>-0.11712034038037933</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="50" spans="2:9" ht="15.75" customHeight="1">
       <c r="B50" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E50" s="358">
-        <f ca="1">MAX(J25*2/E45,1)</f>
-        <v>1.4466622657838253</v>
-      </c>
-      <c r="F50" s="358">
-        <f ca="1">MAX(J25*2/F45,1)</f>
-        <v>1.4466622657838253</v>
-      </c>
-      <c r="G50" s="330"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
+        <v>302</v>
+      </c>
+      <c r="E50" s="353">
+        <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F43,1-F44,E47/J27))</f>
+        <v>0.77776384310701141</v>
+      </c>
+      <c r="F50" s="329">
+        <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F43,1-F44,F47/J27))</f>
+        <v>0.77776384310701141</v>
+      </c>
+      <c r="G50" s="73"/>
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1">
       <c r="B51" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E51" s="327">
-        <f ca="1">MIN(MAX(E48-ABS((1-E48)/E49),0)/E50,H51)</f>
+        <v>301</v>
+      </c>
+      <c r="D51" s="326"/>
+      <c r="E51" s="328">
+        <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
+        <v>2.3608071500352565</v>
+      </c>
+      <c r="F51" s="328">
+        <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
+        <v>2.3608071500352565</v>
+      </c>
+      <c r="G51" s="73"/>
+    </row>
+    <row r="52" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B52" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E52" s="358">
+        <f ca="1">MAX(J27*2/E47,1)</f>
+        <v>1.4466622657838253</v>
+      </c>
+      <c r="F52" s="358">
+        <f ca="1">MAX(J27*2/F47,1)</f>
+        <v>1.4466622657838253</v>
+      </c>
+      <c r="G52" s="330"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B53" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E53" s="327">
+        <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
         <v>0.4</v>
       </c>
-      <c r="F51" s="327">
-        <f ca="1">MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
+      <c r="F53" s="327">
+        <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
         <v>0.4</v>
       </c>
-      <c r="G51" s="330" t="s">
+      <c r="G53" s="330" t="s">
         <v>304</v>
       </c>
-      <c r="H51" s="77">
+      <c r="H53" s="77">
         <v>0.4</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="53" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B53" s="21" t="s">
+    <row r="54" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="55" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B55" s="21" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B54" s="3" t="s">
+    <row r="56" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B56" s="460" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B55" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="57" spans="2:9" ht="15.75" customHeight="1">
       <c r="B57" s="3" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.75" customHeight="1">
       <c r="B58" s="3" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="60" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="61" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="62" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="60" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B60" s="460" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B61" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B62" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
     <row r="63" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="64" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
@@ -6294,46 +6538,23 @@
     <row r="963" ht="15.75" customHeight="1"/>
     <row r="964" ht="15.75" customHeight="1"/>
     <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
+  <mergeCells count="56">
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="I3:J3"/>
@@ -6341,70 +6562,97 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="lessThan">
       <formula>$B$18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:D36 I35:J36">
+  <conditionalFormatting sqref="C37:D38 I37:J38">
     <cfRule type="containsBlanks" priority="2">
-      <formula>LEN(TRIM(C35))=0</formula>
+      <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:E26 I26 C28:G29 I28:I29">
+  <conditionalFormatting sqref="C28:E28 I28 C30:G31 I30:I31">
     <cfRule type="containsBlanks" priority="26">
-      <formula>LEN(TRIM(C26))=0</formula>
+      <formula>LEN(TRIM(C28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:F49">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="E51:F51">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50:F50">
+  <conditionalFormatting sqref="E52:F52">
     <cfRule type="containsBlanks" priority="1">
-      <formula>LEN(TRIM(E50))=0</formula>
+      <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="13" priority="10">
-      <formula>LEN(TRIM(E26))=0</formula>
+  <conditionalFormatting sqref="E28:H28">
+    <cfRule type="containsBlanks" dxfId="14" priority="10">
+      <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="11" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
+  <conditionalFormatting sqref="K40">
     <cfRule type="containsBlanks" priority="11">
-      <formula>LEN(TRIM(K38))=0</formula>
+      <formula>LEN(TRIM(K40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="4">
@@ -6434,10 +6682,10 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N941"/>
+  <dimension ref="A1:N947"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:F13"/>
+    <sheetView showGridLines="0" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -7578,15 +7826,15 @@
         <v>77</v>
       </c>
       <c r="C34" s="140">
-        <f>IF(D7="","",C30-D30+C33+IF($C$49="Yes",C51,0))</f>
+        <f>IF(D7="","",C30-D30+C33+IF($C$55="Yes",C57,0))</f>
         <v>399902.40749999997</v>
       </c>
       <c r="D34" s="140">
-        <f>IF(E7="","",D30-E30+D33+IF($C$49="Yes",D51,0))</f>
+        <f>IF(E7="","",D30-E30+D33+IF($C$55="Yes",D57,0))</f>
         <v>298518.31</v>
       </c>
       <c r="E34" s="140">
-        <f t="shared" ref="E34:F34" si="11">IF(F7="","",E30-F30+E33+IF($C$49="Yes",E51,0))</f>
+        <f t="shared" ref="E34:F34" si="11">IF(F7="","",E30-F30+E33+IF($C$55="Yes",E57,0))</f>
         <v>-790524.87</v>
       </c>
       <c r="F34" s="140" t="str">
@@ -7594,31 +7842,31 @@
         <v/>
       </c>
       <c r="G34" s="140" t="str">
-        <f t="shared" ref="G34" si="12">IF(H7="","",G30-H30+G33+IF($C$49="Yes",G51,0))</f>
+        <f t="shared" ref="G34" si="12">IF(H7="","",G30-H30+G33+IF($C$55="Yes",G57,0))</f>
         <v/>
       </c>
       <c r="H34" s="140" t="str">
-        <f t="shared" ref="H34" si="13">IF(I7="","",H30-I30+H33+IF($C$49="Yes",H51,0))</f>
+        <f t="shared" ref="H34" si="13">IF(I7="","",H30-I30+H33+IF($C$55="Yes",H57,0))</f>
         <v/>
       </c>
       <c r="I34" s="140" t="str">
-        <f t="shared" ref="I34" si="14">IF(J7="","",I30-J30+I33+IF($C$49="Yes",I51,0))</f>
+        <f t="shared" ref="I34" si="14">IF(J7="","",I30-J30+I33+IF($C$55="Yes",I57,0))</f>
         <v/>
       </c>
       <c r="J34" s="140" t="str">
-        <f t="shared" ref="J34" si="15">IF(K7="","",J30-K30+J33+IF($C$49="Yes",J51,0))</f>
+        <f t="shared" ref="J34" si="15">IF(K7="","",J30-K30+J33+IF($C$55="Yes",J57,0))</f>
         <v/>
       </c>
       <c r="K34" s="140" t="str">
-        <f t="shared" ref="K34" si="16">IF(L7="","",K30-L30+K33+IF($C$49="Yes",K51,0))</f>
+        <f t="shared" ref="K34" si="16">IF(L7="","",K30-L30+K33+IF($C$55="Yes",K57,0))</f>
         <v/>
       </c>
       <c r="L34" s="140" t="str">
-        <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$49="Yes",L51,0))</f>
+        <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$55="Yes",L57,0))</f>
         <v/>
       </c>
       <c r="M34" s="318" t="str">
-        <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$49="Yes",M51,0))</f>
+        <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$55="Yes",M57,0))</f>
         <v/>
       </c>
       <c r="N34" s="6"/>
@@ -8120,181 +8368,436 @@
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="9"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
+      <c r="B47" s="462" t="s">
+        <v>345</v>
+      </c>
+      <c r="C47" s="461"/>
+      <c r="D47" s="461"/>
+      <c r="E47" s="461"/>
+      <c r="F47" s="461"/>
+      <c r="G47" s="461"/>
+      <c r="H47" s="461"/>
+      <c r="I47" s="461"/>
+      <c r="J47" s="461"/>
+      <c r="K47" s="461"/>
+      <c r="L47" s="461"/>
+      <c r="M47" s="461"/>
+      <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
       <c r="A48" s="9"/>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="165" t="s">
+        <v>346</v>
+      </c>
+      <c r="C48" s="463">
+        <f>C13</f>
+        <v>0.11378358242100998</v>
+      </c>
+      <c r="D48" s="463">
+        <f>D13</f>
+        <v>0.12086725258551366</v>
+      </c>
+      <c r="E48" s="463">
+        <f t="shared" ref="E48:M48" si="27">E13</f>
+        <v>0.10583450462035347</v>
+      </c>
+      <c r="F48" s="463">
+        <f t="shared" si="27"/>
+        <v>0.10724519842891581</v>
+      </c>
+      <c r="G48" s="463" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="H48" s="463" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="I48" s="463" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="J48" s="463" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="K48" s="463" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L48" s="463" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="M48" s="463" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A49" s="9"/>
+      <c r="B49" s="139" t="s">
+        <v>347</v>
+      </c>
+      <c r="C49" s="464">
+        <f>C7/(C29+C21+C22)</f>
+        <v>0.44926842709067638</v>
+      </c>
+      <c r="D49" s="464">
+        <f>IF(D7="","",D7/(D29+D21+D22))</f>
+        <v>0.40489719964285109</v>
+      </c>
+      <c r="E49" s="464">
+        <f t="shared" ref="E49:M49" si="28">IF(E7="","",E7/(E29+E21+E22))</f>
+        <v>0.34076601504151471</v>
+      </c>
+      <c r="F49" s="464">
+        <f t="shared" si="28"/>
+        <v>0.45805405017494399</v>
+      </c>
+      <c r="G49" s="464" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="H49" s="464" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I49" s="464" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="J49" s="464" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K49" s="464" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="L49" s="464" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="M49" s="464" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A50" s="9"/>
+      <c r="B50" s="139" t="s">
+        <v>348</v>
+      </c>
+      <c r="C50" s="465">
+        <f>(C29+C21+C22)/C29</f>
+        <v>2.1814756689882699</v>
+      </c>
+      <c r="D50" s="465">
+        <f>IF(D29="","",(D29+D21+D22)/D29)</f>
+        <v>2.3999998013079895</v>
+      </c>
+      <c r="E50" s="465">
+        <f t="shared" ref="E50:M50" si="29">IF(E29="","",(E29+E21+E22)/E29)</f>
+        <v>2.2962412574676603</v>
+      </c>
+      <c r="F50" s="465">
+        <f t="shared" si="29"/>
+        <v>2.364605433725699</v>
+      </c>
+      <c r="G50" s="465" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="H50" s="465" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="I50" s="465" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="J50" s="465" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="K50" s="465" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="L50" s="465" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="M50" s="465" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A51" s="9"/>
+      <c r="B51" s="139" t="s">
+        <v>349</v>
+      </c>
+      <c r="C51" s="466">
+        <f>C48*C49*C50</f>
+        <v>0.1115156642752409</v>
+      </c>
+      <c r="D51" s="466">
+        <f>IF(D48="","",D48*D49*D50)</f>
+        <v>0.11745313931720815</v>
+      </c>
+      <c r="E51" s="466">
+        <f t="shared" ref="E51:M51" si="30">IF(E48="","",E48*E49*E50)</f>
+        <v>8.2813487198076061E-2</v>
+      </c>
+      <c r="F51" s="466">
+        <f t="shared" si="30"/>
+        <v>0.11615910788052687</v>
+      </c>
+      <c r="G51" s="466" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="H51" s="466" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="I51" s="466" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="J51" s="466" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="K51" s="466" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="L51" s="466" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="M51" s="466" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A52" s="9"/>
+      <c r="B52" s="467" t="s">
+        <v>350</v>
+      </c>
+      <c r="C52" s="468">
+        <f>C35*C51</f>
+        <v>3.2721382054815146E-2</v>
+      </c>
+      <c r="D52" s="468">
+        <f>IF(D35="","",D35*D51)</f>
+        <v>2.4713834659768077E-2</v>
+      </c>
+      <c r="E52" s="468">
+        <f t="shared" ref="E52:M52" si="31">IF(E35="","",E35*E51)</f>
+        <v>-6.9805585419083035E-2</v>
+      </c>
+      <c r="F52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="G52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="I52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="J52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="K52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="L52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="M52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="N52" s="6"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A53" s="9"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A54" s="9"/>
+      <c r="B54" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-    </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1">
-      <c r="A49" s="9"/>
-      <c r="B49" s="5" t="s">
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
+      <c r="A55" s="9"/>
+      <c r="B55" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="317" t="s">
+      <c r="C55" s="317" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-    </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1">
-      <c r="A50" s="9"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="314"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="314"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A51" s="9"/>
-      <c r="B51" s="315" t="s">
+      <c r="D55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
+      <c r="A56" s="9"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="314"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="314"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A57" s="9"/>
+      <c r="B57" s="315" t="s">
         <v>276</v>
       </c>
-      <c r="C51" s="162"/>
-      <c r="D51" s="162"/>
-      <c r="E51" s="162"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="162"/>
-      <c r="H51" s="162"/>
-      <c r="I51" s="162"/>
-      <c r="J51" s="162"/>
-      <c r="K51" s="162"/>
-      <c r="L51" s="162"/>
-      <c r="M51" s="163"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A52" s="9"/>
-      <c r="B52" s="316" t="s">
+      <c r="C57" s="162"/>
+      <c r="D57" s="162"/>
+      <c r="E57" s="162"/>
+      <c r="F57" s="162"/>
+      <c r="G57" s="162"/>
+      <c r="H57" s="162"/>
+      <c r="I57" s="162"/>
+      <c r="J57" s="162"/>
+      <c r="K57" s="162"/>
+      <c r="L57" s="162"/>
+      <c r="M57" s="163"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A58" s="9"/>
+      <c r="B58" s="316" t="s">
         <v>277</v>
       </c>
-      <c r="C52" s="320" t="str">
-        <f>IF(C51="","",C51/C7)</f>
-        <v/>
-      </c>
-      <c r="D52" s="320" t="str">
-        <f t="shared" ref="D52:M52" si="27">IF(D51="","",D51/D7)</f>
-        <v/>
-      </c>
-      <c r="E52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="F52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="G52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="H52" s="320" t="str">
-        <f>IF(H51="","",H51/H7)</f>
-        <v/>
-      </c>
-      <c r="I52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="J52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="K52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="L52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="M52" s="321" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="9"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A54" s="9"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A55" s="9"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A56" s="9"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A57" s="9"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A58" s="9"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C58" s="320" t="str">
+        <f>IF(C57="","",C57/C7)</f>
+        <v/>
+      </c>
+      <c r="D58" s="320" t="str">
+        <f t="shared" ref="D58:M58" si="32">IF(D57="","",D57/D7)</f>
+        <v/>
+      </c>
+      <c r="E58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H58" s="320" t="str">
+        <f>IF(H57="","",H57/H7)</f>
+        <v/>
+      </c>
+      <c r="I58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M58" s="321" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1">
       <c r="A59" s="9"/>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B59" s="53"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1">
       <c r="A60" s="9"/>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B60" s="53"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1">
       <c r="A61" s="9"/>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B61" s="53"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1">
       <c r="A62" s="9"/>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B62" s="53"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1">
       <c r="A63" s="9"/>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B63" s="53"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1">
       <c r="A64" s="9"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
     </row>
     <row r="65" spans="1:1" ht="15.75" customHeight="1">
       <c r="A65" s="9"/>
@@ -8878,12 +9381,24 @@
     <row r="258" spans="1:1" ht="15.75" customHeight="1">
       <c r="A258" s="9"/>
     </row>
-    <row r="259" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="260" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="261" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="262" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="263" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="264" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="259" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A259" s="9"/>
+    </row>
+    <row r="260" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A260" s="9"/>
+    </row>
+    <row r="261" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A261" s="9"/>
+    </row>
+    <row r="262" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A262" s="9"/>
+    </row>
+    <row r="263" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A263" s="9"/>
+    </row>
+    <row r="264" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A264" s="9"/>
+    </row>
     <row r="265" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="266" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="267" spans="1:1" ht="15.75" customHeight="1"/>
@@ -9561,38 +10076,49 @@
     <row r="939" ht="15.75" customHeight="1"/>
     <row r="940" ht="15.75" customHeight="1"/>
     <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
-  <conditionalFormatting sqref="B51:M52">
-    <cfRule type="expression" dxfId="10" priority="1">
-      <formula>$C$49="No"</formula>
+  <conditionalFormatting sqref="B57:M58">
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>$C$55="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:M35 D42:M46">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:M40">
-    <cfRule type="containsBlanks" dxfId="8" priority="5">
+    <cfRule type="containsBlanks" dxfId="9" priority="6">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="7" priority="4">
+    <cfRule type="containsBlanks" dxfId="8" priority="5">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D48:M52">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(D48))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D51" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D57" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" sqref="C49" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C55" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="C50" xr:uid="{536BB552-B5C0-4BE0-BE6E-3B4056ED999A}"/>
+    <dataValidation allowBlank="1" sqref="C56" xr:uid="{536BB552-B5C0-4BE0-BE6E-3B4056ED999A}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -9761,7 +10287,7 @@
         <v>45016</v>
       </c>
       <c r="E9" s="270" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F9" s="130"/>
       <c r="G9" s="130"/>
@@ -10639,7 +11165,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>860201</v>
       </c>
-      <c r="E53" s="434"/>
+      <c r="E53" s="371"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10658,7 +11184,7 @@
       <c r="D54" s="448">
         <v>0</v>
       </c>
-      <c r="E54" s="398"/>
+      <c r="E54" s="364"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10672,7 +11198,7 @@
       <c r="D55" s="448">
         <v>0</v>
       </c>
-      <c r="E55" s="398"/>
+      <c r="E55" s="364"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -10907,7 +11433,7 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="B4" s="272" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C4" s="273">
         <v>4360265</v>
@@ -10934,7 +11460,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="B5" s="272" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C5" s="273">
         <v>5391825</v>
@@ -10961,7 +11487,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="B6" s="272" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C6" s="273">
         <v>2225754</v>
@@ -11265,7 +11791,7 @@
       </c>
       <c r="J17" s="310"/>
       <c r="L17" s="73" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1">
@@ -12204,17 +12730,17 @@
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E17:E19">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(E17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19 I19">
-    <cfRule type="containsBlanks" dxfId="5" priority="4">
+    <cfRule type="containsBlanks" dxfId="6" priority="4">
       <formula>LEN(TRIM(G19))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:H12 H13 G14:H16">
-    <cfRule type="containsBlanks" dxfId="4" priority="10">
+    <cfRule type="containsBlanks" dxfId="5" priority="10">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="11">
@@ -12222,12 +12748,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:J19">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:J16">
-    <cfRule type="containsBlanks" dxfId="2" priority="6">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(I8))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="7">
@@ -12247,7 +12773,7 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -12728,7 +13254,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="346" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G24" s="347">
         <f ca="1">MIN(G22,G23)+ABS(G22-G23)*'Qualitative Analysis'!$E$64</f>
@@ -12747,7 +13273,7 @@
     </row>
     <row r="26" spans="2:9" ht="15.75" customHeight="1">
       <c r="B26" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C26" s="449" t="s">
         <v>145</v>
@@ -12764,7 +13290,7 @@
     </row>
     <row r="27" spans="2:9" ht="15.75" customHeight="1">
       <c r="B27" s="240" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C27" s="238">
         <f ca="1">MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$8</f>
@@ -12803,7 +13329,7 @@
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1">
       <c r="B30" s="333" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C30" s="335">
         <f ca="1">IF(G9&lt;0,G9,G9*17/G11)</f>
@@ -12847,7 +13373,7 @@
     </row>
     <row r="32" spans="2:9" ht="15.75" customHeight="1">
       <c r="B32" s="333" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C32" s="350">
         <f ca="1">IF(Asset_Model!D7&gt;C27,Asset_Model!D7,C27)/(1+Dashboard!C16)</f>
@@ -13758,12 +14284,12 @@
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E4:F12">
-    <cfRule type="containsBlanks" dxfId="1" priority="5">
+    <cfRule type="containsBlanks" dxfId="2" priority="5">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:G23">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14500,7 +15026,7 @@
         <v>1.4693877551020407</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F54" s="53"/>
       <c r="G54" s="274"/>

--- a/financial_models/Opportunities/0590.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0590.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDB778F-8B76-4952-8E42-42BF2DB62EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33000D92-25D6-4580-8578-FE91E3A1972E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35250" yWindow="4110" windowWidth="8625" windowHeight="4635" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4052,201 +4052,247 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4284,52 +4330,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4339,14 +4339,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4396,6 +4388,14 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4776,33 +4776,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="411" t="s">
+      <c r="C3" s="385" t="s">
         <v>325</v>
       </c>
-      <c r="D3" s="412"/>
+      <c r="D3" s="386"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="421" t="s">
+      <c r="I3" s="397" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="422"/>
+      <c r="J3" s="398"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="413" t="s">
+      <c r="C4" s="387" t="s">
         <v>326</v>
       </c>
-      <c r="D4" s="414"/>
+      <c r="D4" s="388"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>20</v>
+        <v>21.05</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4813,10 +4813,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="415">
+      <c r="C5" s="389">
         <v>45076</v>
       </c>
-      <c r="D5" s="414"/>
+      <c r="D5" s="388"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4824,10 +4824,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="383">
+      <c r="I5" s="399">
         <v>587107850</v>
       </c>
-      <c r="J5" s="384"/>
+      <c r="J5" s="400"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4850,11 +4850,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="423">
+      <c r="I6" s="401">
         <f>I4*I5/1000000</f>
-        <v>11742.156999999999</v>
-      </c>
-      <c r="J6" s="424"/>
+        <v>12358.620242499999</v>
+      </c>
+      <c r="J6" s="402"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4894,11 +4894,11 @@
       </c>
       <c r="I9" s="119">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>9.139593713052351</v>
+        <v>9.6194223829875991</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.10941405399365722</v>
+        <v>0.10395634583720401</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4917,41 +4917,41 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.96082257816132333</v>
+        <v>1.0112657635147928</v>
       </c>
       <c r="J10" s="127">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>9.1302810991672327</v>
+        <v>9.6791997329281774</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="381">
+      <c r="C11" s="416">
         <f ca="1">C12-D10</f>
         <v>2.3189999999999995E-2</v>
       </c>
-      <c r="D11" s="382"/>
+      <c r="D11" s="417"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="378" t="s">
+      <c r="I11" s="414" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="379"/>
+      <c r="J11" s="415"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="429">
+      <c r="C12" s="412">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="430"/>
+      <c r="D12" s="413"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
@@ -4976,7 +4976,7 @@
       <c r="D14" s="239"/>
       <c r="E14" s="190">
         <f ca="1">'FCFF Model'!C27</f>
-        <v>20.549024077646671</v>
+        <v>20.549034711662117</v>
       </c>
       <c r="F14" s="181"/>
       <c r="G14" s="182"/>
@@ -5013,58 +5013,58 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="128">
         <f>I4</f>
-        <v>20</v>
-      </c>
-      <c r="C16" s="404">
+        <v>21.05</v>
+      </c>
+      <c r="C16" s="433">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f ca="1">I37/B16-(1+J27)</f>
-        <v>-1.157986206737216E-2</v>
-      </c>
-      <c r="E16" s="395" t="s">
+        <v>-7.0859512398917968E-2</v>
+      </c>
+      <c r="E16" s="406" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="425">
+      <c r="F16" s="403">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
-        <v>2.535006966171419</v>
-      </c>
-      <c r="G16" s="395" t="s">
+        <v>2.5350401974696815</v>
+      </c>
+      <c r="G16" s="406" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>17.464993033828581</v>
-      </c>
-      <c r="I16" s="390">
+        <v>18.514959802530321</v>
+      </c>
+      <c r="I16" s="424">
         <v>0.55000000000000004</v>
       </c>
       <c r="J16" s="158">
         <f>I16/B16</f>
-        <v>2.7500000000000004E-2</v>
+        <v>2.6128266033254157E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
         <f ca="1">(I37+I38)/2</f>
-        <v>20.103811010384945</v>
-      </c>
-      <c r="C17" s="405"/>
+        <v>20.103817516666233</v>
+      </c>
+      <c r="C17" s="434"/>
       <c r="D17" s="268">
         <f ca="1">I37/B17-(1+J27)</f>
-        <v>-1.7716563970154198E-2</v>
-      </c>
-      <c r="E17" s="396"/>
-      <c r="F17" s="426"/>
-      <c r="G17" s="396"/>
+        <v>-1.7716722493199777E-2</v>
+      </c>
+      <c r="E17" s="407"/>
+      <c r="F17" s="404"/>
+      <c r="G17" s="407"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
-        <v>17.568804044213525</v>
-      </c>
-      <c r="I17" s="391"/>
+        <v>17.568777319196553</v>
+      </c>
+      <c r="I17" s="425"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
-        <v>2.735799693480449E-2</v>
+        <v>2.735798808082323E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -5072,19 +5072,19 @@
         <f>C37</f>
         <v>18.62</v>
       </c>
-      <c r="C18" s="406"/>
+      <c r="C18" s="435"/>
       <c r="D18" s="157">
         <f ca="1">I37/B18-(1+J27)</f>
-        <v>7.6498536984562548E-2</v>
-      </c>
-      <c r="E18" s="397"/>
-      <c r="F18" s="427"/>
-      <c r="G18" s="397"/>
+        <v>7.6498778947517332E-2</v>
+      </c>
+      <c r="E18" s="408"/>
+      <c r="F18" s="405"/>
+      <c r="G18" s="408"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
-        <v>16.084993033828582</v>
-      </c>
-      <c r="I18" s="392"/>
+        <v>16.084959802530321</v>
+      </c>
+      <c r="I18" s="426"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>2.9538131041890441E-2</v>
@@ -5117,80 +5117,80 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="418" t="s">
+      <c r="C21" s="392" t="s">
         <v>332</v>
       </c>
-      <c r="D21" s="419"/>
-      <c r="E21" s="419"/>
-      <c r="F21" s="419"/>
-      <c r="G21" s="419"/>
-      <c r="H21" s="419"/>
-      <c r="I21" s="419"/>
-      <c r="J21" s="420"/>
+      <c r="D21" s="393"/>
+      <c r="E21" s="393"/>
+      <c r="F21" s="393"/>
+      <c r="G21" s="393"/>
+      <c r="H21" s="393"/>
+      <c r="I21" s="393"/>
+      <c r="J21" s="394"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="380" t="s">
+      <c r="C22" s="410" t="s">
         <v>335</v>
       </c>
-      <c r="D22" s="364"/>
-      <c r="E22" s="364"/>
-      <c r="F22" s="364"/>
-      <c r="G22" s="380" t="s">
+      <c r="D22" s="411"/>
+      <c r="E22" s="411"/>
+      <c r="F22" s="411"/>
+      <c r="G22" s="410" t="s">
         <v>338</v>
       </c>
-      <c r="H22" s="380"/>
-      <c r="I22" s="364"/>
-      <c r="J22" s="364"/>
+      <c r="H22" s="410"/>
+      <c r="I22" s="411"/>
+      <c r="J22" s="411"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="393" t="s">
+      <c r="C23" s="395" t="s">
         <v>336</v>
       </c>
-      <c r="D23" s="394"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="394"/>
-      <c r="G23" s="393" t="s">
+      <c r="D23" s="396"/>
+      <c r="E23" s="396"/>
+      <c r="F23" s="396"/>
+      <c r="G23" s="395" t="s">
         <v>337</v>
       </c>
-      <c r="H23" s="393"/>
-      <c r="I23" s="394"/>
-      <c r="J23" s="394"/>
+      <c r="H23" s="395"/>
+      <c r="I23" s="396"/>
+      <c r="J23" s="396"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="C24" s="454"/>
-      <c r="D24" s="455"/>
-      <c r="E24" s="455"/>
-      <c r="F24" s="455"/>
-      <c r="G24" s="455"/>
-      <c r="H24" s="455"/>
-      <c r="I24" s="455"/>
-      <c r="J24" s="456"/>
+      <c r="C24" s="436"/>
+      <c r="D24" s="437"/>
+      <c r="E24" s="437"/>
+      <c r="F24" s="437"/>
+      <c r="G24" s="437"/>
+      <c r="H24" s="437"/>
+      <c r="I24" s="437"/>
+      <c r="J24" s="438"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="453" t="s">
+      <c r="B25" s="361" t="s">
         <v>340</v>
       </c>
-      <c r="C25" s="457"/>
-      <c r="D25" s="458"/>
-      <c r="E25" s="458"/>
-      <c r="F25" s="458"/>
-      <c r="G25" s="458"/>
-      <c r="H25" s="458"/>
-      <c r="I25" s="458"/>
-      <c r="J25" s="459"/>
+      <c r="C25" s="371"/>
+      <c r="D25" s="372"/>
+      <c r="E25" s="372"/>
+      <c r="F25" s="372"/>
+      <c r="G25" s="372"/>
+      <c r="H25" s="372"/>
+      <c r="I25" s="372"/>
+      <c r="J25" s="373"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -5229,205 +5229,205 @@
       <c r="B28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="416"/>
-      <c r="D28" s="417"/>
-      <c r="E28" s="401" t="str">
+      <c r="C28" s="390"/>
+      <c r="D28" s="391"/>
+      <c r="E28" s="430" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F28" s="402"/>
-      <c r="G28" s="402"/>
-      <c r="H28" s="403"/>
-      <c r="I28" s="428" t="s">
+      <c r="F28" s="431"/>
+      <c r="G28" s="431"/>
+      <c r="H28" s="432"/>
+      <c r="I28" s="409" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="428"/>
+      <c r="J28" s="409"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="389">
+      <c r="C29" s="423">
         <f>C33/D27</f>
         <v>0.19748484848484849</v>
       </c>
-      <c r="D29" s="375"/>
-      <c r="E29" s="388">
+      <c r="D29" s="422"/>
+      <c r="E29" s="421">
         <f>E33/D27</f>
         <v>0.19090909090909092</v>
       </c>
-      <c r="F29" s="375"/>
-      <c r="G29" s="399">
+      <c r="F29" s="422"/>
+      <c r="G29" s="428">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="400"/>
-      <c r="I29" s="398">
+      <c r="H29" s="429"/>
+      <c r="I29" s="427">
         <f>C29+E29+G29</f>
         <v>0.3883939393939394</v>
       </c>
-      <c r="J29" s="398"/>
+      <c r="J29" s="427"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="363">
+      <c r="C30" s="452">
         <v>7000</v>
       </c>
-      <c r="D30" s="364"/>
-      <c r="E30" s="363">
+      <c r="D30" s="411"/>
+      <c r="E30" s="452">
         <v>7000</v>
       </c>
-      <c r="F30" s="364"/>
-      <c r="G30" s="383"/>
-      <c r="H30" s="384"/>
-      <c r="I30" s="377">
+      <c r="F30" s="411"/>
+      <c r="G30" s="399"/>
+      <c r="H30" s="400"/>
+      <c r="I30" s="442">
         <f>C30+E30+G30</f>
         <v>14000</v>
       </c>
-      <c r="J30" s="377"/>
+      <c r="J30" s="442"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="365">
+      <c r="C31" s="453">
         <v>18.62</v>
       </c>
-      <c r="D31" s="364"/>
-      <c r="E31" s="365">
+      <c r="D31" s="411"/>
+      <c r="E31" s="453">
         <v>18</v>
       </c>
-      <c r="F31" s="364"/>
-      <c r="G31" s="386"/>
-      <c r="H31" s="387"/>
-      <c r="I31" s="385"/>
-      <c r="J31" s="385"/>
+      <c r="F31" s="411"/>
+      <c r="G31" s="419"/>
+      <c r="H31" s="420"/>
+      <c r="I31" s="418"/>
+      <c r="J31" s="418"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="361">
+      <c r="C32" s="440">
         <f>C31*$I$5/1000000</f>
         <v>10931.948167</v>
       </c>
-      <c r="D32" s="362"/>
-      <c r="E32" s="361">
+      <c r="D32" s="448"/>
+      <c r="E32" s="440">
         <f>E31*$I$5/1000000</f>
         <v>10567.9413</v>
       </c>
-      <c r="F32" s="362"/>
-      <c r="G32" s="407">
+      <c r="F32" s="448"/>
+      <c r="G32" s="381">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="408"/>
-      <c r="I32" s="376"/>
-      <c r="J32" s="376"/>
+      <c r="H32" s="382"/>
+      <c r="I32" s="439"/>
+      <c r="J32" s="439"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="370">
+      <c r="C33" s="449">
         <f>C30*C31</f>
         <v>130340</v>
       </c>
-      <c r="D33" s="371"/>
-      <c r="E33" s="372">
+      <c r="D33" s="450"/>
+      <c r="E33" s="441">
         <f>E30*E31</f>
         <v>126000</v>
       </c>
-      <c r="F33" s="373"/>
-      <c r="G33" s="409">
+      <c r="F33" s="451"/>
+      <c r="G33" s="383">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="410"/>
-      <c r="I33" s="372">
+      <c r="H33" s="384"/>
+      <c r="I33" s="441">
         <f>C33+E33+G33</f>
         <v>256340</v>
       </c>
-      <c r="J33" s="372"/>
+      <c r="J33" s="441"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="366"/>
-      <c r="D34" s="367"/>
-      <c r="E34" s="374">
+      <c r="C34" s="444"/>
+      <c r="D34" s="445"/>
+      <c r="E34" s="443">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>18.309999999999999</v>
       </c>
-      <c r="F34" s="375"/>
+      <c r="F34" s="422"/>
       <c r="G34" s="115"/>
       <c r="H34" s="115"/>
-      <c r="I34" s="374">
+      <c r="I34" s="443">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>18.309999999999999</v>
       </c>
-      <c r="J34" s="374"/>
+      <c r="J34" s="443"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="368"/>
-      <c r="D35" s="369"/>
-      <c r="E35" s="361">
+      <c r="C35" s="446"/>
+      <c r="D35" s="447"/>
+      <c r="E35" s="440">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>10749.9447335</v>
       </c>
-      <c r="F35" s="362"/>
+      <c r="F35" s="448"/>
       <c r="G35" s="116"/>
       <c r="H35" s="116"/>
-      <c r="I35" s="361">
+      <c r="I35" s="440">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>10749.9447335</v>
       </c>
-      <c r="J35" s="361"/>
+      <c r="J35" s="440"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C37" s="434">
+      <c r="C37" s="377">
         <f>IF(C28="",C31,E31)</f>
         <v>18.62</v>
       </c>
-      <c r="D37" s="435"/>
-      <c r="G37" s="436" t="s">
+      <c r="D37" s="378"/>
+      <c r="G37" s="379" t="s">
         <v>315</v>
       </c>
-      <c r="H37" s="437"/>
-      <c r="I37" s="432">
+      <c r="H37" s="380"/>
+      <c r="I37" s="375">
         <f ca="1">'FCFF Model'!C31</f>
-        <v>23.768402758652556</v>
-      </c>
-      <c r="J37" s="433"/>
+        <v>23.768407264002775</v>
+      </c>
+      <c r="J37" s="376"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="143" t="s">
         <v>316</v>
       </c>
-      <c r="C38" s="434">
+      <c r="C38" s="377">
         <f>IF(C28="",C31,E34)</f>
         <v>18.62</v>
       </c>
-      <c r="D38" s="435"/>
-      <c r="G38" s="431" t="s">
+      <c r="D38" s="378"/>
+      <c r="G38" s="374" t="s">
         <v>313</v>
       </c>
-      <c r="H38" s="431"/>
-      <c r="I38" s="432">
+      <c r="H38" s="374"/>
+      <c r="I38" s="375">
         <f ca="1">'FCFF Model'!C32</f>
-        <v>16.439219262117337</v>
-      </c>
-      <c r="J38" s="433"/>
+        <v>16.439227769329694</v>
+      </c>
+      <c r="J38" s="376"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
@@ -5513,11 +5513,11 @@
       </c>
       <c r="E47" s="329">
         <f ca="1">I37/C31-1</f>
-        <v>0.2764985369845625</v>
+        <v>0.27649877894751729</v>
       </c>
       <c r="F47" s="332">
         <f ca="1">I37/C38-1</f>
-        <v>0.2764985369845625</v>
+        <v>0.27649877894751729</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
@@ -5526,11 +5526,11 @@
       </c>
       <c r="E48" s="329">
         <f ca="1">I38/C31-1</f>
-        <v>-0.11712034038037933</v>
+        <v>-0.11711988349464586</v>
       </c>
       <c r="F48" s="332">
         <f ca="1">I38/C38-1</f>
-        <v>-0.11712034038037933</v>
+        <v>-0.11711988349464586</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.75" customHeight="1"/>
@@ -5540,11 +5540,11 @@
       </c>
       <c r="E50" s="353">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F43,1-F44,E47/J27))</f>
-        <v>0.77776384310701141</v>
+        <v>0.7777640850699663</v>
       </c>
       <c r="F50" s="329">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F43,1-F44,F47/J27))</f>
-        <v>0.77776384310701141</v>
+        <v>0.7777640850699663</v>
       </c>
       <c r="G50" s="73"/>
     </row>
@@ -5555,11 +5555,11 @@
       <c r="D51" s="326"/>
       <c r="E51" s="328">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>2.3608071500352565</v>
+        <v>2.3608184255080604</v>
       </c>
       <c r="F51" s="328">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>2.3608071500352565</v>
+        <v>2.3608184255080604</v>
       </c>
       <c r="G51" s="73"/>
     </row>
@@ -5569,11 +5569,11 @@
       </c>
       <c r="E52" s="358">
         <f ca="1">MAX(J27*2/E47,1)</f>
-        <v>1.4466622657838253</v>
+        <v>1.4466609998155715</v>
       </c>
       <c r="F52" s="358">
         <f ca="1">MAX(J27*2/F47,1)</f>
-        <v>1.4466622657838253</v>
+        <v>1.4466609998155715</v>
       </c>
       <c r="G52" s="330"/>
       <c r="H52" s="84"/>
@@ -5605,7 +5605,7 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B56" s="460" t="s">
+      <c r="B56" s="362" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="60" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B60" s="460" t="s">
+      <c r="B60" s="362" t="s">
         <v>309</v>
       </c>
     </row>
@@ -6542,15 +6542,30 @@
     <row r="967" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6567,37 +6582,22 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I30:J30"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -8368,20 +8368,20 @@
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="9"/>
-      <c r="B47" s="462" t="s">
+      <c r="B47" s="364" t="s">
         <v>345</v>
       </c>
-      <c r="C47" s="461"/>
-      <c r="D47" s="461"/>
-      <c r="E47" s="461"/>
-      <c r="F47" s="461"/>
-      <c r="G47" s="461"/>
-      <c r="H47" s="461"/>
-      <c r="I47" s="461"/>
-      <c r="J47" s="461"/>
-      <c r="K47" s="461"/>
-      <c r="L47" s="461"/>
-      <c r="M47" s="461"/>
+      <c r="C47" s="363"/>
+      <c r="D47" s="363"/>
+      <c r="E47" s="363"/>
+      <c r="F47" s="363"/>
+      <c r="G47" s="363"/>
+      <c r="H47" s="363"/>
+      <c r="I47" s="363"/>
+      <c r="J47" s="363"/>
+      <c r="K47" s="363"/>
+      <c r="L47" s="363"/>
+      <c r="M47" s="363"/>
       <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
@@ -8389,47 +8389,47 @@
       <c r="B48" s="165" t="s">
         <v>346</v>
       </c>
-      <c r="C48" s="463">
+      <c r="C48" s="365">
         <f>C13</f>
         <v>0.11378358242100998</v>
       </c>
-      <c r="D48" s="463">
+      <c r="D48" s="365">
         <f>D13</f>
         <v>0.12086725258551366</v>
       </c>
-      <c r="E48" s="463">
+      <c r="E48" s="365">
         <f t="shared" ref="E48:M48" si="27">E13</f>
         <v>0.10583450462035347</v>
       </c>
-      <c r="F48" s="463">
+      <c r="F48" s="365">
         <f t="shared" si="27"/>
         <v>0.10724519842891581</v>
       </c>
-      <c r="G48" s="463" t="str">
+      <c r="G48" s="365" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H48" s="463" t="str">
+      <c r="H48" s="365" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I48" s="463" t="str">
+      <c r="I48" s="365" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="J48" s="463" t="str">
+      <c r="J48" s="365" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="K48" s="463" t="str">
+      <c r="K48" s="365" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="L48" s="463" t="str">
+      <c r="L48" s="365" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="M48" s="463" t="str">
+      <c r="M48" s="365" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
@@ -8440,47 +8440,47 @@
       <c r="B49" s="139" t="s">
         <v>347</v>
       </c>
-      <c r="C49" s="464">
+      <c r="C49" s="366">
         <f>C7/(C29+C21+C22)</f>
         <v>0.44926842709067638</v>
       </c>
-      <c r="D49" s="464">
+      <c r="D49" s="366">
         <f>IF(D7="","",D7/(D29+D21+D22))</f>
         <v>0.40489719964285109</v>
       </c>
-      <c r="E49" s="464">
+      <c r="E49" s="366">
         <f t="shared" ref="E49:M49" si="28">IF(E7="","",E7/(E29+E21+E22))</f>
         <v>0.34076601504151471</v>
       </c>
-      <c r="F49" s="464">
+      <c r="F49" s="366">
         <f t="shared" si="28"/>
         <v>0.45805405017494399</v>
       </c>
-      <c r="G49" s="464" t="str">
+      <c r="G49" s="366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="H49" s="464" t="str">
+      <c r="H49" s="366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I49" s="464" t="str">
+      <c r="I49" s="366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J49" s="464" t="str">
+      <c r="J49" s="366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="K49" s="464" t="str">
+      <c r="K49" s="366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="L49" s="464" t="str">
+      <c r="L49" s="366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="M49" s="464" t="str">
+      <c r="M49" s="366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -8491,47 +8491,47 @@
       <c r="B50" s="139" t="s">
         <v>348</v>
       </c>
-      <c r="C50" s="465">
+      <c r="C50" s="367">
         <f>(C29+C21+C22)/C29</f>
         <v>2.1814756689882699</v>
       </c>
-      <c r="D50" s="465">
+      <c r="D50" s="367">
         <f>IF(D29="","",(D29+D21+D22)/D29)</f>
         <v>2.3999998013079895</v>
       </c>
-      <c r="E50" s="465">
+      <c r="E50" s="367">
         <f t="shared" ref="E50:M50" si="29">IF(E29="","",(E29+E21+E22)/E29)</f>
         <v>2.2962412574676603</v>
       </c>
-      <c r="F50" s="465">
+      <c r="F50" s="367">
         <f t="shared" si="29"/>
         <v>2.364605433725699</v>
       </c>
-      <c r="G50" s="465" t="str">
+      <c r="G50" s="367" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="H50" s="465" t="str">
+      <c r="H50" s="367" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="I50" s="465" t="str">
+      <c r="I50" s="367" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="J50" s="465" t="str">
+      <c r="J50" s="367" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="K50" s="465" t="str">
+      <c r="K50" s="367" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="L50" s="465" t="str">
+      <c r="L50" s="367" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="M50" s="465" t="str">
+      <c r="M50" s="367" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
@@ -8542,47 +8542,47 @@
       <c r="B51" s="139" t="s">
         <v>349</v>
       </c>
-      <c r="C51" s="466">
+      <c r="C51" s="368">
         <f>C48*C49*C50</f>
         <v>0.1115156642752409</v>
       </c>
-      <c r="D51" s="466">
+      <c r="D51" s="368">
         <f>IF(D48="","",D48*D49*D50)</f>
         <v>0.11745313931720815</v>
       </c>
-      <c r="E51" s="466">
+      <c r="E51" s="368">
         <f t="shared" ref="E51:M51" si="30">IF(E48="","",E48*E49*E50)</f>
         <v>8.2813487198076061E-2</v>
       </c>
-      <c r="F51" s="466">
+      <c r="F51" s="368">
         <f t="shared" si="30"/>
         <v>0.11615910788052687</v>
       </c>
-      <c r="G51" s="466" t="str">
+      <c r="G51" s="368" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="H51" s="466" t="str">
+      <c r="H51" s="368" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="I51" s="466" t="str">
+      <c r="I51" s="368" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="J51" s="466" t="str">
+      <c r="J51" s="368" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="K51" s="466" t="str">
+      <c r="K51" s="368" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="L51" s="466" t="str">
+      <c r="L51" s="368" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="M51" s="466" t="str">
+      <c r="M51" s="368" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
@@ -8590,50 +8590,50 @@
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
       <c r="A52" s="9"/>
-      <c r="B52" s="467" t="s">
+      <c r="B52" s="369" t="s">
         <v>350</v>
       </c>
-      <c r="C52" s="468">
+      <c r="C52" s="370">
         <f>C35*C51</f>
         <v>3.2721382054815146E-2</v>
       </c>
-      <c r="D52" s="468">
+      <c r="D52" s="370">
         <f>IF(D35="","",D35*D51)</f>
         <v>2.4713834659768077E-2</v>
       </c>
-      <c r="E52" s="468">
+      <c r="E52" s="370">
         <f t="shared" ref="E52:M52" si="31">IF(E35="","",E35*E51)</f>
         <v>-6.9805585419083035E-2</v>
       </c>
-      <c r="F52" s="468" t="str">
+      <c r="F52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="G52" s="468" t="str">
+      <c r="G52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H52" s="468" t="str">
+      <c r="H52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="I52" s="468" t="str">
+      <c r="I52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="J52" s="468" t="str">
+      <c r="J52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="K52" s="468" t="str">
+      <c r="K52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="L52" s="468" t="str">
+      <c r="L52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="M52" s="468" t="str">
+      <c r="M52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
@@ -10105,7 +10105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:M52">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(D48))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10226,11 +10226,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="59">
         <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
-        <v>8727518.2896439247</v>
+        <v>8727537.8000000007</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.28585551836806655</v>
+        <v>0.28585392189898284</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -10250,7 +10250,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>14.865272691625439</v>
+        <v>14.865305922923701</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -11116,7 +11116,7 @@
       <c r="C49" s="6"/>
       <c r="D49" s="211" t="str">
         <f>IF(E50=D4,"BV of the MI","P/B Approach")</f>
-        <v>P/B Approach</v>
+        <v>BV of the MI</v>
       </c>
       <c r="E49" s="6"/>
     </row>
@@ -11130,11 +11130,11 @@
       </c>
       <c r="D50" s="208">
         <f>IF(E50=0, 0,E50/C50)</f>
-        <v>0.96082257816132333</v>
+        <v>1</v>
       </c>
       <c r="E50" s="212">
         <f>MAX(C50,C50*Dashboard!I10)</f>
-        <v>-478.48964392433902</v>
+        <v>-498</v>
       </c>
       <c r="I50" s="154"/>
     </row>
@@ -11148,11 +11148,11 @@
         <v>249</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="438">
+      <c r="D52" s="454">
         <f>D53+D54+D55</f>
         <v>860201</v>
       </c>
-      <c r="E52" s="439"/>
+      <c r="E52" s="455"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -11161,11 +11161,11 @@
         <v>222</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="441">
+      <c r="D53" s="457">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>860201</v>
       </c>
-      <c r="E53" s="371"/>
+      <c r="E53" s="450"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -11181,10 +11181,10 @@
         <v>129</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="448">
+      <c r="D54" s="464">
         <v>0</v>
       </c>
-      <c r="E54" s="364"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -11195,10 +11195,10 @@
         <v>128</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="448">
+      <c r="D55" s="464">
         <v>0</v>
       </c>
-      <c r="E55" s="364"/>
+      <c r="E55" s="411"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -11213,8 +11213,8 @@
         <v>132</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="440"/>
-      <c r="E57" s="440"/>
+      <c r="D57" s="456"/>
+      <c r="E57" s="456"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -11260,11 +11260,11 @@
         <v>133</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="446">
+      <c r="D60" s="462">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>10253440.510356076</v>
-      </c>
-      <c r="E60" s="447"/>
+        <v>10869884.2425</v>
+      </c>
+      <c r="E60" s="463"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -11281,20 +11281,20 @@
       <c r="B63" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D63" s="444">
+      <c r="D63" s="460">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>0.59767191825173216</v>
       </c>
-      <c r="E63" s="445"/>
+      <c r="E63" s="461"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1">
       <c r="B64" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D64" s="442">
+      <c r="D64" s="458">
         <v>0.1075</v>
       </c>
-      <c r="E64" s="443"/>
+      <c r="E64" s="459"/>
       <c r="F64" s="250" t="s">
         <v>236</v>
       </c>
@@ -11303,10 +11303,10 @@
       <c r="B65" s="271" t="s">
         <v>252</v>
       </c>
-      <c r="D65" s="442">
+      <c r="D65" s="458">
         <v>0.1075</v>
       </c>
-      <c r="E65" s="443"/>
+      <c r="E65" s="459"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12730,17 +12730,17 @@
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E17:E19">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
+    <cfRule type="containsBlanks" dxfId="6" priority="2">
       <formula>LEN(TRIM(E17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19 I19">
-    <cfRule type="containsBlanks" dxfId="6" priority="4">
+    <cfRule type="containsBlanks" dxfId="5" priority="4">
       <formula>LEN(TRIM(G19))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:H12 H13 G14:H16">
-    <cfRule type="containsBlanks" dxfId="5" priority="10">
+    <cfRule type="containsBlanks" dxfId="4" priority="10">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="11">
@@ -12748,12 +12748,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:J19">
-    <cfRule type="containsBlanks" dxfId="4" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:J16">
-    <cfRule type="containsBlanks" dxfId="3" priority="6">
+    <cfRule type="containsBlanks" dxfId="2" priority="6">
       <formula>LEN(TRIM(I8))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="7">
@@ -13087,7 +13087,7 @@
       </c>
       <c r="G15" s="134">
         <f>C15+C16+C17+C18</f>
-        <v>1488322.4896439244</v>
+        <v>1488342</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -13107,7 +13107,7 @@
       </c>
       <c r="G16" s="194">
         <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
-        <v>2.535006966171419</v>
+        <v>2.5350401974696815</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" customHeight="1">
@@ -13122,7 +13122,7 @@
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-1.4651498868563928</v>
       </c>
-      <c r="E17" s="451" t="str">
+      <c r="E17" s="467" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -13139,20 +13139,20 @@
       </c>
       <c r="C18" s="83">
         <f>-Asset_Model!E50</f>
-        <v>478.48964392433902</v>
+        <v>498</v>
       </c>
       <c r="D18" s="213">
         <f>C18/(Dashboard!I5/Data!C4)</f>
-        <v>8.1499445787403294E-4</v>
-      </c>
-      <c r="E18" s="451"/>
+        <v>8.4822575613662811E-4</v>
+      </c>
+      <c r="E18" s="467"/>
       <c r="F18" s="145">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>3.9986707723291386</v>
       </c>
       <c r="G18" s="144">
         <f>SUM(D16:D18)</f>
-        <v>-1.4636638061577198</v>
+        <v>-1.4636305748594574</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15.75" customHeight="1">
@@ -13167,10 +13167,10 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E20" s="452" t="s">
+      <c r="E20" s="468" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="452"/>
+      <c r="F20" s="468"/>
       <c r="G20" s="94"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1">
@@ -13216,7 +13216,7 @@
       </c>
       <c r="F22" s="342">
         <f ca="1">E22+$G$16</f>
-        <v>17.908569608273368</v>
+        <v>17.908602839571628</v>
       </c>
       <c r="G22" s="345">
         <f ca="1">ROUND(F22*Exchange_Rate,2)</f>
@@ -13241,7 +13241,7 @@
       </c>
       <c r="F23" s="343">
         <f ca="1">E23+$G$16</f>
-        <v>27.132707193534536</v>
+        <v>27.132740424832797</v>
       </c>
       <c r="G23" s="348">
         <f ca="1">ROUND(F23*Exchange_Rate,2)</f>
@@ -13275,10 +13275,10 @@
       <c r="B26" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="C26" s="449" t="s">
+      <c r="C26" s="465" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="450"/>
+      <c r="D26" s="466"/>
       <c r="E26" s="30" t="s">
         <v>210</v>
       </c>
@@ -13294,7 +13294,7 @@
       </c>
       <c r="C27" s="238">
         <f ca="1">MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$8</f>
-        <v>20.549024077646671</v>
+        <v>20.549034711662117</v>
       </c>
       <c r="D27" s="117" t="str">
         <f>Dashboard!J4</f>
@@ -13302,11 +13302,11 @@
       </c>
       <c r="E27" s="118">
         <f ca="1">(C27-G16)/C9</f>
-        <v>12.588771073938064</v>
+        <v>12.588755282234388</v>
       </c>
       <c r="F27" s="155">
         <f ca="1">C27/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.98719831464917918</v>
+        <v>0.98719882551928606</v>
       </c>
       <c r="G27" s="86"/>
       <c r="H27" s="6"/>
@@ -13341,7 +13341,7 @@
       </c>
       <c r="E30" s="118">
         <f ca="1">(C30-G16)/C9</f>
-        <v>16.492469112823805</v>
+        <v>16.49244588973016</v>
       </c>
       <c r="F30" s="155">
         <f ca="1">C30/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
@@ -13355,7 +13355,7 @@
       </c>
       <c r="C31" s="350">
         <f ca="1">MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E64</f>
-        <v>23.768402758652556</v>
+        <v>23.768407264002775</v>
       </c>
       <c r="D31" s="334" t="str">
         <f>D30</f>
@@ -13363,11 +13363,11 @@
       </c>
       <c r="E31" s="118">
         <f ca="1">(C31-G16)/C9</f>
-        <v>14.838575821246907</v>
+        <v>14.838555746636034</v>
       </c>
       <c r="F31" s="155">
         <f ca="1">C31/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.1418143722479979</v>
+        <v>1.1418145886812889</v>
       </c>
       <c r="I31" s="73"/>
     </row>
@@ -13377,7 +13377,7 @@
       </c>
       <c r="C32" s="350">
         <f ca="1">IF(Asset_Model!D7&gt;C27,Asset_Model!D7,C27)/(1+Dashboard!C16)</f>
-        <v>16.439219262117337</v>
+        <v>16.439227769329694</v>
       </c>
       <c r="D32" s="334" t="str">
         <f>D30</f>
@@ -13385,11 +13385,11 @@
       </c>
       <c r="E32" s="118">
         <f ca="1">(C32-G16)/C9</f>
-        <v>9.7167080764898497</v>
+        <v>9.7166907985081785</v>
       </c>
       <c r="F32" s="155">
         <f ca="1">C32/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.78972647058450518</v>
+        <v>0.78972687926393714</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -14284,12 +14284,12 @@
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E4:F12">
-    <cfRule type="containsBlanks" dxfId="2" priority="5">
+    <cfRule type="containsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:G23">
-    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
